--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\iDIA_Rules\patient_addition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules_EC/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E6D8B2-291A-45EA-88F2-2C134D750398}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD534DB7-7279-644C-83E7-6372BECF65C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="1580" windowWidth="27980" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="27">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>ROUTE_ID</t>
   </si>
 </sst>
 </file>
@@ -647,24 +650,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -974,15 +960,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O481"/>
+  <dimension ref="A1:P487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N487" sqref="N487"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1015,11 @@
       <c r="O1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1047,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +1057,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1077,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1097,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1127,7 +1117,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1159,7 +1149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1264,7 +1254,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1284,7 +1274,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1294,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1314,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1409,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +1419,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1439,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1469,7 +1459,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1489,7 +1479,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1521,7 +1511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1626,7 +1616,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1636,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1666,7 +1656,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1676,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1718,7 +1708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1750,7 +1740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1803,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1823,7 +1813,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1843,7 +1833,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1863,7 +1853,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1895,7 +1885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1927,7 +1917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1945,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1965,7 +1955,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +1975,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +1995,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2037,7 +2027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2069,7 +2059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2092,7 +2082,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2110,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2130,7 +2120,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2150,7 +2140,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2170,7 +2160,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2190,7 +2180,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2222,7 +2212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2286,7 +2276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2309,7 +2299,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2327,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2347,7 +2337,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2367,7 +2357,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2387,7 +2377,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2419,7 +2409,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2451,7 +2441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -2474,7 +2464,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2497,7 +2487,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2515,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2535,7 +2525,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2555,7 +2545,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -2575,7 +2565,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2607,7 +2597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2639,7 +2629,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -2662,7 +2652,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2685,7 +2675,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2703,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -2723,7 +2713,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -2743,7 +2733,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -2763,7 +2753,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2795,7 +2785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2827,7 +2817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2865,7 +2855,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -2885,7 +2875,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -2905,7 +2895,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2937,7 +2927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +2959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2987,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +2997,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -3027,7 +3017,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -3047,7 +3037,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -3079,7 +3069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -3111,7 +3101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -3149,7 +3139,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -3169,7 +3159,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -3189,7 +3179,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -3221,7 +3211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -3253,7 +3243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -3271,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -3291,7 +3281,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -3311,7 +3301,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -3331,7 +3321,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3363,7 +3353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -3395,7 +3385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3413,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -3433,7 +3423,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -3453,7 +3443,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -3473,7 +3463,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3505,7 +3495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -3537,7 +3527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -3555,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3575,7 +3565,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -3595,7 +3585,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3615,7 +3605,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -3647,7 +3637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +3669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -3697,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -3717,7 +3707,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -3737,7 +3727,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -3757,7 +3747,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -3789,7 +3779,7 @@
         <v>4340851</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -3821,7 +3811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -3844,7 +3834,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -3862,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3882,7 +3872,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -3902,7 +3892,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -3922,7 +3912,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -3954,7 +3944,7 @@
         <v>4340851</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -3986,7 +3976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -4009,7 +3999,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -4027,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -4047,7 +4037,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -4067,7 +4057,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -4087,7 +4077,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -4119,7 +4109,7 @@
         <v>4340851</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -4151,7 +4141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -4174,7 +4164,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -4192,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -4212,7 +4202,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -4232,7 +4222,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -4252,7 +4242,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -4284,7 +4274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -4316,7 +4306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -4339,7 +4329,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -4357,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -4377,7 +4367,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -4397,7 +4387,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -4417,7 +4407,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -4449,7 +4439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -4481,7 +4471,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -4499,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -4519,7 +4509,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -4539,7 +4529,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -4559,7 +4549,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -4591,7 +4581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -4623,7 +4613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -4641,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -4661,7 +4651,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -4681,7 +4671,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -4701,7 +4691,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -4721,7 +4711,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -4753,7 +4743,7 @@
         <v>4340851</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -4785,7 +4775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -4817,7 +4807,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -4835,7 +4825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -4855,7 +4845,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -4875,7 +4865,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -4895,7 +4885,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -4927,7 +4917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -4959,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -4977,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -4997,7 +4987,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -5017,7 +5007,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -5037,7 +5027,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -5057,7 +5047,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -5089,7 +5079,7 @@
         <v>4340851</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -5121,7 +5111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -5153,7 +5143,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -5171,7 +5161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -5191,7 +5181,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -5211,7 +5201,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -5231,7 +5221,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -5251,7 +5241,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -5283,7 +5273,7 @@
         <v>4340851</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -5314,8 +5304,11 @@
       <c r="O181" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P181">
+        <v>4184451</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -5347,7 +5340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -5365,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>15</v>
       </c>
@@ -5385,7 +5378,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>15</v>
       </c>
@@ -5405,7 +5398,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -5425,7 +5418,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -5457,7 +5450,7 @@
         <v>4340851</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -5488,8 +5481,11 @@
       <c r="O188" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P188">
+        <v>4184451</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -5527,7 +5523,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -5547,7 +5543,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -5567,7 +5563,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -5599,7 +5595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -5631,7 +5627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -5649,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -5669,7 +5665,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -5689,7 +5685,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -5709,7 +5705,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -5741,7 +5737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -5773,7 +5769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -5791,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -5811,7 +5807,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -5831,7 +5827,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -5851,7 +5847,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>16</v>
       </c>
@@ -5883,7 +5879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -5915,7 +5911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -5933,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -5953,7 +5949,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -5973,7 +5969,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -5993,7 +5989,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -6025,7 +6021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -6057,7 +6053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -6075,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -6095,7 +6091,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -6115,7 +6111,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -6135,7 +6131,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -6155,7 +6151,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -6187,7 +6183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -6219,7 +6215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -6251,7 +6247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -6269,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -6289,7 +6285,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -6309,7 +6305,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -6329,7 +6325,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -6349,7 +6345,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -6369,7 +6365,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>16</v>
       </c>
@@ -6401,7 +6397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>16</v>
       </c>
@@ -6433,7 +6429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -6465,7 +6461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>16</v>
       </c>
@@ -6497,7 +6493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -6515,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -6535,7 +6531,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -6555,7 +6551,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -6575,7 +6571,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -6595,7 +6591,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -6627,7 +6623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>16</v>
       </c>
@@ -6659,7 +6655,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -6677,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -6697,7 +6693,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -6717,7 +6713,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -6737,7 +6733,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>16</v>
       </c>
@@ -6769,7 +6765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -6801,7 +6797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -6819,7 +6815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -6839,7 +6835,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -6859,7 +6855,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -6879,7 +6875,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>16</v>
       </c>
@@ -6911,7 +6907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>16</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -6961,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>15</v>
       </c>
@@ -6981,7 +6977,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -7001,7 +6997,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -7021,7 +7017,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>16</v>
       </c>
@@ -7053,7 +7049,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>16</v>
       </c>
@@ -7085,7 +7081,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -7103,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -7123,7 +7119,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -7143,7 +7139,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -7163,7 +7159,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>14</v>
       </c>
@@ -7183,7 +7179,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7215,7 +7211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -7247,7 +7243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -7279,7 +7275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>13</v>
       </c>
@@ -7297,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -7317,7 +7313,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -7337,7 +7333,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -7357,7 +7353,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>14</v>
       </c>
@@ -7377,7 +7373,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -7409,7 +7405,7 @@
         <v>4340851</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -7440,8 +7436,11 @@
       <c r="O270" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P270">
+        <v>4184451</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>15</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -7499,7 +7498,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -7519,7 +7518,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -7603,7 +7602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -7661,7 +7660,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -7681,7 +7680,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -7701,7 +7700,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>16</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -7783,7 +7782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -7823,7 +7822,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>16</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -7907,7 +7906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>13</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -7985,7 +7984,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -8017,7 +8016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -8049,7 +8048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -8067,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -8087,7 +8086,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>14</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -8159,7 +8158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -8191,7 +8190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -8269,7 +8268,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>16</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>16</v>
       </c>
@@ -8333,7 +8332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -8371,7 +8370,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -8391,7 +8390,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>16</v>
       </c>
@@ -8443,7 +8442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>16</v>
       </c>
@@ -8475,7 +8474,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -8493,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>15</v>
       </c>
@@ -8533,7 +8532,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -8553,7 +8552,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>16</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -8635,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>15</v>
       </c>
@@ -8655,7 +8654,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -8695,7 +8694,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>16</v>
       </c>
@@ -8727,7 +8726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>16</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>13</v>
       </c>
@@ -8777,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -8797,7 +8796,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>16</v>
       </c>
@@ -8869,7 +8868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>16</v>
       </c>
@@ -8901,7 +8900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -8919,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -8939,7 +8938,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -8959,7 +8958,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -8979,7 +8978,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>16</v>
       </c>
@@ -9011,7 +9010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>16</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>18</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>13</v>
       </c>
@@ -9084,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>14</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>16</v>
       </c>
@@ -9176,7 +9175,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>16</v>
       </c>
@@ -9208,7 +9207,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>13</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>15</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>15</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>15</v>
       </c>
@@ -9286,7 +9285,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>14</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>16</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>16</v>
       </c>
@@ -9369,8 +9368,11 @@
       <c r="O352" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P352">
+        <v>4184451</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>16</v>
       </c>
@@ -9402,7 +9404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>13</v>
       </c>
@@ -9420,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>15</v>
       </c>
@@ -9440,7 +9442,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>15</v>
       </c>
@@ -9460,7 +9462,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>14</v>
       </c>
@@ -9480,7 +9482,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>16</v>
       </c>
@@ -9512,7 +9514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>16</v>
       </c>
@@ -9543,8 +9545,11 @@
       <c r="O359" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P359">
+        <v>4184451</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>13</v>
       </c>
@@ -9562,7 +9567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>15</v>
       </c>
@@ -9582,7 +9587,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>15</v>
       </c>
@@ -9602,7 +9607,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>17</v>
       </c>
@@ -9622,7 +9627,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>14</v>
       </c>
@@ -9642,7 +9647,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>16</v>
       </c>
@@ -9674,7 +9679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>16</v>
       </c>
@@ -9705,8 +9710,11 @@
       <c r="O366" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P366">
+        <v>4184451</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>13</v>
       </c>
@@ -9724,7 +9732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>15</v>
       </c>
@@ -9744,7 +9752,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>15</v>
       </c>
@@ -9764,7 +9772,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -9784,7 +9792,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>16</v>
       </c>
@@ -9816,7 +9824,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>16</v>
       </c>
@@ -9848,7 +9856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>13</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>15</v>
       </c>
@@ -9886,7 +9894,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>15</v>
       </c>
@@ -9906,7 +9914,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>15</v>
       </c>
@@ -9926,7 +9934,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -9946,7 +9954,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -9978,7 +9986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>16</v>
       </c>
@@ -10010,7 +10018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -10042,7 +10050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>13</v>
       </c>
@@ -10060,7 +10068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>15</v>
       </c>
@@ -10080,7 +10088,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>15</v>
       </c>
@@ -10100,7 +10108,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>17</v>
       </c>
@@ -10120,7 +10128,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -10140,7 +10148,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>16</v>
       </c>
@@ -10172,7 +10180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>16</v>
       </c>
@@ -10204,7 +10212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>13</v>
       </c>
@@ -10222,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>15</v>
       </c>
@@ -10242,7 +10250,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>15</v>
       </c>
@@ -10262,7 +10270,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -10282,7 +10290,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>16</v>
       </c>
@@ -10314,7 +10322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>16</v>
       </c>
@@ -10346,7 +10354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>13</v>
       </c>
@@ -10364,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>15</v>
       </c>
@@ -10384,7 +10392,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>15</v>
       </c>
@@ -10404,7 +10412,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>15</v>
       </c>
@@ -10424,7 +10432,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>14</v>
       </c>
@@ -10444,7 +10452,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>16</v>
       </c>
@@ -10476,7 +10484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>16</v>
       </c>
@@ -10508,7 +10516,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>16</v>
       </c>
@@ -10540,7 +10548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>13</v>
       </c>
@@ -10558,7 +10566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>15</v>
       </c>
@@ -10578,7 +10586,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -10598,7 +10606,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>17</v>
       </c>
@@ -10618,7 +10626,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>14</v>
       </c>
@@ -10638,7 +10646,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>16</v>
       </c>
@@ -10670,7 +10678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>16</v>
       </c>
@@ -10702,7 +10710,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>13</v>
       </c>
@@ -10720,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>15</v>
       </c>
@@ -10740,7 +10748,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>15</v>
       </c>
@@ -10760,7 +10768,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>14</v>
       </c>
@@ -10780,7 +10788,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>16</v>
       </c>
@@ -10812,7 +10820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>16</v>
       </c>
@@ -10844,7 +10852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>18</v>
       </c>
@@ -10867,7 +10875,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -10885,7 +10893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>15</v>
       </c>
@@ -10905,7 +10913,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>15</v>
       </c>
@@ -10925,7 +10933,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>14</v>
       </c>
@@ -10945,7 +10953,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>16</v>
       </c>
@@ -10977,7 +10985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>16</v>
       </c>
@@ -11009,7 +11017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>18</v>
       </c>
@@ -11032,7 +11040,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>13</v>
       </c>
@@ -11050,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>15</v>
       </c>
@@ -11070,7 +11078,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>15</v>
       </c>
@@ -11090,7 +11098,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>14</v>
       </c>
@@ -11110,7 +11118,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>16</v>
       </c>
@@ -11142,7 +11150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>16</v>
       </c>
@@ -11174,7 +11182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>18</v>
       </c>
@@ -11197,7 +11205,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -11215,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>15</v>
       </c>
@@ -11235,7 +11243,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>15</v>
       </c>
@@ -11255,7 +11263,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>14</v>
       </c>
@@ -11275,7 +11283,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>16</v>
       </c>
@@ -11307,7 +11315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>16</v>
       </c>
@@ -11339,7 +11347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>18</v>
       </c>
@@ -11362,7 +11370,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -11380,7 +11388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>15</v>
       </c>
@@ -11400,7 +11408,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>15</v>
       </c>
@@ -11420,7 +11428,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>14</v>
       </c>
@@ -11440,7 +11448,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>16</v>
       </c>
@@ -11472,7 +11480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>16</v>
       </c>
@@ -11504,7 +11512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -11522,7 +11530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>15</v>
       </c>
@@ -11542,7 +11550,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>15</v>
       </c>
@@ -11562,7 +11570,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -11582,7 +11590,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>16</v>
       </c>
@@ -11614,7 +11622,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>16</v>
       </c>
@@ -11646,7 +11654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -11664,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>15</v>
       </c>
@@ -11684,7 +11692,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>15</v>
       </c>
@@ -11704,7 +11712,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>14</v>
       </c>
@@ -11724,7 +11732,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>16</v>
       </c>
@@ -11756,7 +11764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>16</v>
       </c>
@@ -11788,7 +11796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -11806,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>15</v>
       </c>
@@ -11826,7 +11834,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>15</v>
       </c>
@@ -11846,7 +11854,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>14</v>
       </c>
@@ -11866,7 +11874,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>16</v>
       </c>
@@ -11898,7 +11906,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>16</v>
       </c>
@@ -11930,7 +11938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>13</v>
       </c>
@@ -11948,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>15</v>
       </c>
@@ -11968,7 +11976,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>15</v>
       </c>
@@ -11988,7 +11996,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>15</v>
       </c>
@@ -12008,7 +12016,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>14</v>
       </c>
@@ -12028,7 +12036,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>16</v>
       </c>
@@ -12060,7 +12068,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>16</v>
       </c>
@@ -12092,7 +12100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>16</v>
       </c>
@@ -12124,7 +12132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>18</v>
       </c>
@@ -12147,7 +12155,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -12165,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>15</v>
       </c>
@@ -12185,7 +12193,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>15</v>
       </c>
@@ -12205,7 +12213,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>14</v>
       </c>
@@ -12225,7 +12233,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>16</v>
       </c>
@@ -12257,7 +12265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>16</v>
       </c>
@@ -12289,7 +12297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>13</v>
       </c>
@@ -12310,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>15</v>
       </c>
@@ -12330,7 +12338,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>15</v>
       </c>
@@ -12350,7 +12358,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>14</v>
       </c>
@@ -12370,7 +12378,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>16</v>
       </c>
@@ -12402,7 +12410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>16</v>
       </c>
@@ -12432,6 +12440,148 @@
       </c>
       <c r="O481" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>13</v>
+      </c>
+      <c r="B482" s="2"/>
+      <c r="C482">
+        <v>1566</v>
+      </c>
+      <c r="D482">
+        <v>1972</v>
+      </c>
+      <c r="L482">
+        <v>1</v>
+      </c>
+      <c r="M482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>15</v>
+      </c>
+      <c r="B483">
+        <v>52872</v>
+      </c>
+      <c r="C483">
+        <v>1566</v>
+      </c>
+      <c r="E483">
+        <v>1343916</v>
+      </c>
+      <c r="F483" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G483" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>15</v>
+      </c>
+      <c r="B484">
+        <v>52873</v>
+      </c>
+      <c r="C484">
+        <v>1566</v>
+      </c>
+      <c r="E484">
+        <v>902427</v>
+      </c>
+      <c r="F484" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G484" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>14</v>
+      </c>
+      <c r="B485">
+        <v>135589</v>
+      </c>
+      <c r="C485">
+        <v>1566</v>
+      </c>
+      <c r="F485" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G485" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I485">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>16</v>
+      </c>
+      <c r="B486">
+        <v>149567</v>
+      </c>
+      <c r="C486">
+        <v>1566</v>
+      </c>
+      <c r="E486">
+        <v>19076899</v>
+      </c>
+      <c r="F486" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G486" s="1">
+        <v>39565</v>
+      </c>
+      <c r="J486">
+        <v>30</v>
+      </c>
+      <c r="K486">
+        <v>1</v>
+      </c>
+      <c r="N486" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>16</v>
+      </c>
+      <c r="B487">
+        <v>149568</v>
+      </c>
+      <c r="C487">
+        <v>1566</v>
+      </c>
+      <c r="E487">
+        <v>902430</v>
+      </c>
+      <c r="F487" s="1">
+        <v>39491</v>
+      </c>
+      <c r="G487" s="1">
+        <v>39565</v>
+      </c>
+      <c r="J487">
+        <v>10</v>
+      </c>
+      <c r="K487">
+        <v>30</v>
+      </c>
+      <c r="N487" t="s">
+        <v>23</v>
+      </c>
+      <c r="O487" t="s">
+        <v>25</v>
+      </c>
+      <c r="P487">
+        <v>4184451</v>
       </c>
     </row>
   </sheetData>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules_EC/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD534DB7-7279-644C-83E7-6372BECF65C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE8B72-1F99-E940-9350-59434D93094B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1580" windowWidth="27980" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$O$481</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$O$487</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="27">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -963,8 +963,8 @@
   <dimension ref="A1:P487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N487" sqref="N487"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,6 +1148,9 @@
       <c r="O7" t="s">
         <v>25</v>
       </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1180,6 +1183,9 @@
       <c r="O8" t="s">
         <v>25</v>
       </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1210,6 +1216,9 @@
         <v>22</v>
       </c>
       <c r="O9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1345,6 +1354,9 @@
       <c r="O15" t="s">
         <v>25</v>
       </c>
+      <c r="P15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1377,8 +1389,11 @@
       <c r="O16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1510,8 +1525,11 @@
       <c r="O22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1542,8 +1560,11 @@
       <c r="O23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1574,8 +1595,11 @@
       <c r="O24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1596,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1616,7 +1640,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1636,7 +1660,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1656,7 +1680,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1676,7 +1700,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1707,8 +1731,11 @@
       <c r="O30" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1739,8 +1766,11 @@
       <c r="O31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1771,8 +1801,11 @@
       <c r="O32" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1846,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1833,7 +1866,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -1853,7 +1886,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1884,8 +1917,11 @@
       <c r="O37" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -1916,8 +1952,11 @@
       <c r="O38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1935,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -1955,7 +1994,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -1975,7 +2014,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -1995,7 +2034,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2026,8 +2065,11 @@
       <c r="O43" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2058,8 +2100,11 @@
       <c r="O44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -2082,7 +2127,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2100,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>15</v>
       </c>
@@ -2120,7 +2165,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -2140,7 +2185,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>15</v>
       </c>
@@ -2160,7 +2205,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2180,7 +2225,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -2211,8 +2256,11 @@
       <c r="O51" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -2243,8 +2291,11 @@
       <c r="O52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -2275,8 +2326,11 @@
       <c r="O53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -2299,7 +2353,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2317,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -2337,7 +2391,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2411,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -2377,7 +2431,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -2408,8 +2462,11 @@
       <c r="O59" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -2440,8 +2497,11 @@
       <c r="O60" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -2464,7 +2524,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>18</v>
       </c>
@@ -2487,7 +2547,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2505,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -2525,7 +2585,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>15</v>
       </c>
@@ -2545,7 +2605,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -2565,7 +2625,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2596,8 +2656,11 @@
       <c r="O67" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2628,8 +2691,11 @@
       <c r="O68" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -2652,7 +2718,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2675,7 +2741,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -2693,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -2713,7 +2779,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -2733,7 +2799,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>14</v>
       </c>
@@ -2753,7 +2819,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2784,8 +2850,11 @@
       <c r="O75" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2816,8 +2885,11 @@
       <c r="O76" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -2835,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -2855,7 +2927,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -2875,7 +2947,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>14</v>
       </c>
@@ -2895,7 +2967,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -2926,8 +2998,11 @@
       <c r="O81" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -2958,8 +3033,11 @@
       <c r="O82" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2977,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -2997,7 +3075,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -3017,7 +3095,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3115,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -3068,8 +3146,11 @@
       <c r="O87" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -3100,8 +3181,11 @@
       <c r="O88" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -3119,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -3139,7 +3223,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -3159,7 +3243,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>14</v>
       </c>
@@ -3179,7 +3263,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -3210,8 +3294,11 @@
       <c r="O93" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -3242,8 +3329,11 @@
       <c r="O94" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -3261,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -3281,7 +3371,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -3301,7 +3391,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>14</v>
       </c>
@@ -3321,7 +3411,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3352,8 +3442,11 @@
       <c r="O99" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -3384,8 +3477,11 @@
       <c r="O100" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -3403,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -3423,7 +3519,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -3443,7 +3539,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -3463,7 +3559,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -3494,8 +3590,11 @@
       <c r="O105" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P105" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -3526,8 +3625,11 @@
       <c r="O106" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -3545,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -3565,7 +3667,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -3585,7 +3687,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3605,7 +3707,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -3636,8 +3738,11 @@
       <c r="O111" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -3668,8 +3773,11 @@
       <c r="O112" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>13</v>
       </c>
@@ -3687,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -3707,7 +3815,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -3727,7 +3835,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -3747,7 +3855,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -3778,8 +3886,11 @@
       <c r="O117">
         <v>4340851</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -3810,8 +3921,11 @@
       <c r="O118" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -3834,7 +3948,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>13</v>
       </c>
@@ -3852,7 +3966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -3872,7 +3986,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -3892,7 +4006,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>14</v>
       </c>
@@ -3912,7 +4026,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -3943,8 +4057,11 @@
       <c r="O124">
         <v>4340851</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -3975,8 +4092,11 @@
       <c r="O125" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -3999,7 +4119,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -4017,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -4037,7 +4157,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -4057,7 +4177,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>14</v>
       </c>
@@ -4077,7 +4197,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -4108,8 +4228,11 @@
       <c r="O131">
         <v>4340851</v>
       </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -4140,8 +4263,11 @@
       <c r="O132" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -4164,7 +4290,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>13</v>
       </c>
@@ -4182,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -4202,7 +4328,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -4222,7 +4348,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>14</v>
       </c>
@@ -4242,7 +4368,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -4273,8 +4399,11 @@
       <c r="O138" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -4305,8 +4434,11 @@
       <c r="O139" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P139" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -4329,7 +4461,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -4347,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -4367,7 +4499,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -4387,7 +4519,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>14</v>
       </c>
@@ -4407,7 +4539,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -4438,8 +4570,11 @@
       <c r="O145" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P145" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -4470,8 +4605,11 @@
       <c r="O146" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>13</v>
       </c>
@@ -4489,7 +4627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -4509,7 +4647,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -4529,7 +4667,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>14</v>
       </c>
@@ -4549,7 +4687,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -4580,8 +4718,11 @@
       <c r="O151" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P151" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -4612,8 +4753,11 @@
       <c r="O152" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>13</v>
       </c>
@@ -4631,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -4651,7 +4795,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -4671,7 +4815,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -4691,7 +4835,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -4711,7 +4855,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -4742,8 +4886,11 @@
       <c r="O158">
         <v>4340851</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -4774,8 +4921,11 @@
       <c r="O159" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P159" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -4806,8 +4956,11 @@
       <c r="O160" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -4825,7 +4978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -4845,7 +4998,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -4865,7 +5018,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -4885,7 +5038,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -4916,8 +5069,11 @@
       <c r="O165" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -4948,8 +5104,11 @@
       <c r="O166" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -4967,7 +5126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -4987,7 +5146,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -5007,7 +5166,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>15</v>
       </c>
@@ -5027,7 +5186,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -5047,7 +5206,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -5078,8 +5237,11 @@
       <c r="O172">
         <v>4340851</v>
       </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P172" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -5110,8 +5272,11 @@
       <c r="O173" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P173" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -5142,8 +5307,11 @@
       <c r="O174" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P174" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -5161,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>15</v>
       </c>
@@ -5272,6 +5440,9 @@
       <c r="O180">
         <v>4340851</v>
       </c>
+      <c r="P180" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -5337,6 +5508,9 @@
         <v>23</v>
       </c>
       <c r="O182" t="s">
+        <v>25</v>
+      </c>
+      <c r="P182" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5449,6 +5623,9 @@
       <c r="O187">
         <v>4340851</v>
       </c>
+      <c r="P187" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -5563,7 +5740,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -5594,8 +5771,11 @@
       <c r="O193" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P193" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -5626,8 +5806,11 @@
       <c r="O194" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P194" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -5645,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5848,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>15</v>
       </c>
@@ -5685,7 +5868,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -5705,7 +5888,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -5736,8 +5919,11 @@
       <c r="O199" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -5768,8 +5954,11 @@
       <c r="O200" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P200" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -5787,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>15</v>
       </c>
@@ -5807,7 +5996,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>15</v>
       </c>
@@ -5827,7 +6016,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -5847,7 +6036,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>16</v>
       </c>
@@ -5878,8 +6067,11 @@
       <c r="O205" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P205" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -5910,8 +6102,11 @@
       <c r="O206" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>13</v>
       </c>
@@ -5929,7 +6124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>15</v>
       </c>
@@ -5949,7 +6144,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -5969,7 +6164,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -5989,7 +6184,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -6020,8 +6215,11 @@
       <c r="O211" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P211" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -6052,8 +6250,11 @@
       <c r="O212" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P212" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>13</v>
       </c>
@@ -6071,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -6091,7 +6292,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -6111,7 +6312,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>15</v>
       </c>
@@ -6131,7 +6332,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -6151,7 +6352,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -6182,8 +6383,11 @@
       <c r="O218" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P218" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -6214,8 +6418,11 @@
       <c r="O219" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P219" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -6246,8 +6453,11 @@
       <c r="O220" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P220" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -6265,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -6285,7 +6495,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -6305,7 +6515,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -6325,7 +6535,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -6345,7 +6555,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>14</v>
       </c>
@@ -6365,7 +6575,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>16</v>
       </c>
@@ -6396,8 +6606,11 @@
       <c r="O227" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P227" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>16</v>
       </c>
@@ -6428,8 +6641,11 @@
       <c r="O228" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P228" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -6460,8 +6676,11 @@
       <c r="O229" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P229" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>16</v>
       </c>
@@ -6492,8 +6711,11 @@
       <c r="O230" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P230" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -6511,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -6531,7 +6753,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -6551,7 +6773,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>17</v>
       </c>
@@ -6571,7 +6793,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -6591,7 +6813,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -6622,8 +6844,11 @@
       <c r="O236" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P236" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>16</v>
       </c>
@@ -6654,8 +6879,11 @@
       <c r="O237" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P237" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -6673,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -6693,7 +6921,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -6713,7 +6941,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>14</v>
       </c>
@@ -6733,7 +6961,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>16</v>
       </c>
@@ -6764,8 +6992,11 @@
       <c r="O242" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P242" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -6796,8 +7027,11 @@
       <c r="O243" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P243" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -6815,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -6835,7 +7069,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -6855,7 +7089,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -6875,7 +7109,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>16</v>
       </c>
@@ -6906,8 +7140,11 @@
       <c r="O248" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P248" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>16</v>
       </c>
@@ -6938,8 +7175,11 @@
       <c r="O249" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P249" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>13</v>
       </c>
@@ -6957,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>15</v>
       </c>
@@ -6977,7 +7217,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -6997,7 +7237,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>14</v>
       </c>
@@ -7017,7 +7257,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>16</v>
       </c>
@@ -7048,8 +7288,11 @@
       <c r="O254" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P254" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>16</v>
       </c>
@@ -7080,8 +7323,11 @@
       <c r="O255" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P255" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -7210,6 +7456,9 @@
       <c r="O261" t="s">
         <v>25</v>
       </c>
+      <c r="P261" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -7242,6 +7491,9 @@
       <c r="O262" t="s">
         <v>25</v>
       </c>
+      <c r="P262" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -7272,6 +7524,9 @@
         <v>22</v>
       </c>
       <c r="O263" t="s">
+        <v>25</v>
+      </c>
+      <c r="P263" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7404,6 +7659,9 @@
       <c r="O269">
         <v>4340851</v>
       </c>
+      <c r="P269" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -7478,7 +7736,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -7498,7 +7756,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -7518,7 +7776,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>14</v>
       </c>
@@ -7538,7 +7796,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -7569,8 +7827,11 @@
       <c r="O276" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P276" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>16</v>
       </c>
@@ -7601,8 +7862,11 @@
       <c r="O277" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P277" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>13</v>
       </c>
@@ -7620,7 +7884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -7640,7 +7904,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -7660,7 +7924,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -7680,7 +7944,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -7700,7 +7964,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>16</v>
       </c>
@@ -7731,8 +7995,11 @@
       <c r="O283" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P283" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -7763,8 +8030,11 @@
       <c r="O284" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P284" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>13</v>
       </c>
@@ -7782,7 +8052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -7802,7 +8072,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -7822,7 +8092,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>14</v>
       </c>
@@ -7842,7 +8112,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>16</v>
       </c>
@@ -7873,8 +8143,11 @@
       <c r="O289" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P289" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>16</v>
       </c>
@@ -7905,8 +8178,11 @@
       <c r="O290" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P290" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>13</v>
       </c>
@@ -7924,7 +8200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -7944,7 +8220,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -7964,7 +8240,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -7984,7 +8260,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>16</v>
       </c>
@@ -8015,8 +8291,11 @@
       <c r="O295" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P295" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>16</v>
       </c>
@@ -8047,8 +8326,11 @@
       <c r="O296" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P296" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>13</v>
       </c>
@@ -8066,7 +8348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -8086,7 +8368,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -8106,7 +8388,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>14</v>
       </c>
@@ -8126,7 +8408,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>16</v>
       </c>
@@ -8157,8 +8439,11 @@
       <c r="O301" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P301" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>16</v>
       </c>
@@ -8189,8 +8474,11 @@
       <c r="O302" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P302" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>13</v>
       </c>
@@ -8208,7 +8496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -8228,7 +8516,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -8248,7 +8536,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>14</v>
       </c>
@@ -8268,7 +8556,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>16</v>
       </c>
@@ -8299,8 +8587,11 @@
       <c r="O307" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P307" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>16</v>
       </c>
@@ -8331,8 +8622,11 @@
       <c r="O308" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P308" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>13</v>
       </c>
@@ -8350,7 +8644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -8370,7 +8664,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -8390,7 +8684,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>14</v>
       </c>
@@ -8410,7 +8704,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>16</v>
       </c>
@@ -8441,8 +8735,11 @@
       <c r="O313" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P313" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>16</v>
       </c>
@@ -8473,8 +8770,11 @@
       <c r="O314" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P314" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>13</v>
       </c>
@@ -8492,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -8512,7 +8812,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>15</v>
       </c>
@@ -8532,7 +8832,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>14</v>
       </c>
@@ -8552,7 +8852,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>16</v>
       </c>
@@ -8583,8 +8883,11 @@
       <c r="O319" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P319" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -8615,8 +8918,11 @@
       <c r="O320" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P320" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>13</v>
       </c>
@@ -8634,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>15</v>
       </c>
@@ -8654,7 +8960,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -8674,7 +8980,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>14</v>
       </c>
@@ -8694,7 +9000,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>16</v>
       </c>
@@ -8725,8 +9031,11 @@
       <c r="O325" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P325" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>16</v>
       </c>
@@ -8757,8 +9066,11 @@
       <c r="O326" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P326" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>13</v>
       </c>
@@ -8776,7 +9088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -8796,7 +9108,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -8816,7 +9128,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>14</v>
       </c>
@@ -8836,7 +9148,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>16</v>
       </c>
@@ -8867,8 +9179,11 @@
       <c r="O331" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P331" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>16</v>
       </c>
@@ -8899,8 +9214,11 @@
       <c r="O332" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P332" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>13</v>
       </c>
@@ -8918,7 +9236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -8938,7 +9256,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -8958,7 +9276,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>14</v>
       </c>
@@ -9009,6 +9327,9 @@
       <c r="O337" t="s">
         <v>25</v>
       </c>
+      <c r="P337" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
@@ -9039,6 +9360,9 @@
         <v>22</v>
       </c>
       <c r="O338" t="s">
+        <v>25</v>
+      </c>
+      <c r="P338" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9174,6 +9498,9 @@
       <c r="O344" t="s">
         <v>25</v>
       </c>
+      <c r="P344" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -9204,6 +9531,9 @@
         <v>21</v>
       </c>
       <c r="O345" t="s">
+        <v>25</v>
+      </c>
+      <c r="P345" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9336,6 +9666,9 @@
       <c r="O351" t="s">
         <v>25</v>
       </c>
+      <c r="P351" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
@@ -9401,6 +9734,9 @@
         <v>23</v>
       </c>
       <c r="O353" t="s">
+        <v>25</v>
+      </c>
+      <c r="P353" t="s">
         <v>25</v>
       </c>
     </row>
@@ -9513,6 +9849,9 @@
       <c r="O358" t="s">
         <v>25</v>
       </c>
+      <c r="P358" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -9678,6 +10017,9 @@
       <c r="O365" t="s">
         <v>25</v>
       </c>
+      <c r="P365" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
@@ -9752,7 +10094,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>15</v>
       </c>
@@ -9772,7 +10114,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>14</v>
       </c>
@@ -9792,7 +10134,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>16</v>
       </c>
@@ -9823,8 +10165,11 @@
       <c r="O371" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P371" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>16</v>
       </c>
@@ -9855,8 +10200,11 @@
       <c r="O372" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P372" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>13</v>
       </c>
@@ -9874,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>15</v>
       </c>
@@ -9894,7 +10242,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>15</v>
       </c>
@@ -9914,7 +10262,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>15</v>
       </c>
@@ -9934,7 +10282,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>14</v>
       </c>
@@ -9954,7 +10302,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -9985,8 +10333,11 @@
       <c r="O378" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P378" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>16</v>
       </c>
@@ -10017,8 +10368,11 @@
       <c r="O379" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P379" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -10049,8 +10403,11 @@
       <c r="O380" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P380" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>13</v>
       </c>
@@ -10068,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>15</v>
       </c>
@@ -10088,7 +10445,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>15</v>
       </c>
@@ -10108,7 +10465,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>17</v>
       </c>
@@ -10128,7 +10485,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -10148,7 +10505,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>16</v>
       </c>
@@ -10179,8 +10536,11 @@
       <c r="O386" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P386" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>16</v>
       </c>
@@ -10211,8 +10571,11 @@
       <c r="O387" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P387" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>13</v>
       </c>
@@ -10230,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>15</v>
       </c>
@@ -10250,7 +10613,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>15</v>
       </c>
@@ -10270,7 +10633,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>14</v>
       </c>
@@ -10290,7 +10653,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>16</v>
       </c>
@@ -10321,8 +10684,11 @@
       <c r="O392" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P392" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>16</v>
       </c>
@@ -10353,8 +10719,11 @@
       <c r="O393" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P393" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>13</v>
       </c>
@@ -10372,7 +10741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>15</v>
       </c>
@@ -10392,7 +10761,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>15</v>
       </c>
@@ -10412,7 +10781,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>15</v>
       </c>
@@ -10432,7 +10801,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>14</v>
       </c>
@@ -10452,7 +10821,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>16</v>
       </c>
@@ -10483,8 +10852,11 @@
       <c r="O399" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P399" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>16</v>
       </c>
@@ -10515,8 +10887,11 @@
       <c r="O400" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P400" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>16</v>
       </c>
@@ -10547,8 +10922,11 @@
       <c r="O401" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P401" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>13</v>
       </c>
@@ -10566,7 +10944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>15</v>
       </c>
@@ -10586,7 +10964,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>15</v>
       </c>
@@ -10606,7 +10984,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>17</v>
       </c>
@@ -10626,7 +11004,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>14</v>
       </c>
@@ -10646,7 +11024,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>16</v>
       </c>
@@ -10677,8 +11055,11 @@
       <c r="O407" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P407" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>16</v>
       </c>
@@ -10709,8 +11090,11 @@
       <c r="O408" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P408" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>13</v>
       </c>
@@ -10728,7 +11112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>15</v>
       </c>
@@ -10748,7 +11132,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>15</v>
       </c>
@@ -10768,7 +11152,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>14</v>
       </c>
@@ -10788,7 +11172,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>16</v>
       </c>
@@ -10819,8 +11203,11 @@
       <c r="O413" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P413" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>16</v>
       </c>
@@ -10851,8 +11238,11 @@
       <c r="O414" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P414" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>18</v>
       </c>
@@ -10875,7 +11265,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>13</v>
       </c>
@@ -10893,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>15</v>
       </c>
@@ -10913,7 +11303,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>15</v>
       </c>
@@ -10933,7 +11323,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>14</v>
       </c>
@@ -10953,7 +11343,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>16</v>
       </c>
@@ -10984,8 +11374,11 @@
       <c r="O420" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P420" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>16</v>
       </c>
@@ -11016,8 +11409,11 @@
       <c r="O421" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P421" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>18</v>
       </c>
@@ -11040,7 +11436,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>13</v>
       </c>
@@ -11058,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>15</v>
       </c>
@@ -11078,7 +11474,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>15</v>
       </c>
@@ -11098,7 +11494,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>14</v>
       </c>
@@ -11118,7 +11514,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>16</v>
       </c>
@@ -11149,8 +11545,11 @@
       <c r="O427" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P427" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>16</v>
       </c>
@@ -11181,8 +11580,11 @@
       <c r="O428" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P428" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>18</v>
       </c>
@@ -11205,7 +11607,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>13</v>
       </c>
@@ -11223,7 +11625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>15</v>
       </c>
@@ -11243,7 +11645,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>15</v>
       </c>
@@ -11263,7 +11665,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>14</v>
       </c>
@@ -11283,7 +11685,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>16</v>
       </c>
@@ -11314,8 +11716,11 @@
       <c r="O434" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P434" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>16</v>
       </c>
@@ -11346,8 +11751,11 @@
       <c r="O435" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P435" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>18</v>
       </c>
@@ -11370,7 +11778,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>13</v>
       </c>
@@ -11388,7 +11796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>15</v>
       </c>
@@ -11408,7 +11816,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>15</v>
       </c>
@@ -11428,7 +11836,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>14</v>
       </c>
@@ -11448,7 +11856,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>16</v>
       </c>
@@ -11479,8 +11887,11 @@
       <c r="O441" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P441" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>16</v>
       </c>
@@ -11511,8 +11922,11 @@
       <c r="O442" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P442" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>13</v>
       </c>
@@ -11530,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>15</v>
       </c>
@@ -11550,7 +11964,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>15</v>
       </c>
@@ -11570,7 +11984,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>14</v>
       </c>
@@ -11590,7 +12004,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>16</v>
       </c>
@@ -11621,8 +12035,11 @@
       <c r="O447" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P447" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>16</v>
       </c>
@@ -11653,8 +12070,11 @@
       <c r="O448" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P448" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>13</v>
       </c>
@@ -11672,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>15</v>
       </c>
@@ -11692,7 +12112,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>15</v>
       </c>
@@ -11712,7 +12132,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>14</v>
       </c>
@@ -11732,7 +12152,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>16</v>
       </c>
@@ -11763,8 +12183,11 @@
       <c r="O453" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P453" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>16</v>
       </c>
@@ -11795,8 +12218,11 @@
       <c r="O454" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P454" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>13</v>
       </c>
@@ -11814,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>15</v>
       </c>
@@ -11834,7 +12260,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>15</v>
       </c>
@@ -11854,7 +12280,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>14</v>
       </c>
@@ -11874,7 +12300,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>16</v>
       </c>
@@ -11905,8 +12331,11 @@
       <c r="O459" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P459" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>16</v>
       </c>
@@ -11937,8 +12366,11 @@
       <c r="O460" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P460" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>13</v>
       </c>
@@ -11956,7 +12388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>15</v>
       </c>
@@ -11976,7 +12408,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>15</v>
       </c>
@@ -11996,7 +12428,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>15</v>
       </c>
@@ -12016,7 +12448,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>14</v>
       </c>
@@ -12036,7 +12468,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>16</v>
       </c>
@@ -12067,8 +12499,11 @@
       <c r="O466" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P466" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>16</v>
       </c>
@@ -12099,8 +12534,11 @@
       <c r="O467" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P467" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>16</v>
       </c>
@@ -12131,8 +12569,11 @@
       <c r="O468" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P468" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>18</v>
       </c>
@@ -12155,7 +12596,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>13</v>
       </c>
@@ -12173,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>15</v>
       </c>
@@ -12193,7 +12634,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>15</v>
       </c>
@@ -12213,7 +12654,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>14</v>
       </c>
@@ -12233,7 +12674,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>16</v>
       </c>
@@ -12264,8 +12705,11 @@
       <c r="O474" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P474" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>16</v>
       </c>
@@ -12296,8 +12740,11 @@
       <c r="O475" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P475" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>13</v>
       </c>
@@ -12318,7 +12765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>15</v>
       </c>
@@ -12338,7 +12785,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>15</v>
       </c>
@@ -12358,7 +12805,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>14</v>
       </c>
@@ -12378,7 +12825,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>16</v>
       </c>
@@ -12409,6 +12856,9 @@
       <c r="O480" t="s">
         <v>25</v>
       </c>
+      <c r="P480" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="481" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
@@ -12439,6 +12889,9 @@
         <v>23</v>
       </c>
       <c r="O481" t="s">
+        <v>25</v>
+      </c>
+      <c r="P481" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12548,6 +13001,12 @@
       <c r="N486" t="s">
         <v>24</v>
       </c>
+      <c r="O486" t="s">
+        <v>25</v>
+      </c>
+      <c r="P486" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="487" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
@@ -12585,7 +13044,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O481" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:O487" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O481">
       <sortCondition ref="C1:C481"/>
     </sortState>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules_EC/patient_addition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BE8B72-1F99-E940-9350-59434D93094B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D5018-C8C3-3E40-BF28-02CA0D43FFA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="1580" windowWidth="27980" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -963,8 +963,8 @@
   <dimension ref="A1:P487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E481" activeCellId="1" sqref="F486 E481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3869,7 +3869,7 @@
         <v>19076899</v>
       </c>
       <c r="F117" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G117" s="1">
         <v>39565</v>
@@ -4211,7 +4211,7 @@
         <v>19076899</v>
       </c>
       <c r="F131" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G131" s="1">
         <v>39565</v>
@@ -4869,7 +4869,7 @@
         <v>19076899</v>
       </c>
       <c r="F158" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G158" s="1">
         <v>39565</v>
@@ -5052,7 +5052,7 @@
         <v>19076899</v>
       </c>
       <c r="F165" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G165" s="1">
         <v>39565</v>
@@ -5220,7 +5220,7 @@
         <v>19076899</v>
       </c>
       <c r="F172" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G172" s="1">
         <v>39565</v>
@@ -5423,7 +5423,7 @@
         <v>19076899</v>
       </c>
       <c r="F180" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G180" s="1">
         <v>39565</v>
@@ -7642,7 +7642,7 @@
         <v>19076899</v>
       </c>
       <c r="F269" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G269" s="1">
         <v>39565</v>
@@ -7810,7 +7810,7 @@
         <v>19076899</v>
       </c>
       <c r="F276" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G276" s="1">
         <v>39565</v>
@@ -7978,7 +7978,7 @@
         <v>19076899</v>
       </c>
       <c r="F283" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G283" s="1">
         <v>39565</v>
@@ -12987,7 +12987,7 @@
         <v>19076899</v>
       </c>
       <c r="F486" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="G486" s="1">
         <v>39565</v>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C768E1FD-CE01-8D4D-9614-8CA38353E0A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F99AE3-A746-254D-8484-B272C768543A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,8 +953,8 @@
   <dimension ref="A1:O493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O496" sqref="O496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3146,7 +3146,7 @@
         <v>19104396</v>
       </c>
       <c r="E99" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="F99" s="1">
         <v>39565</v>
@@ -3278,7 +3278,7 @@
         <v>19076899</v>
       </c>
       <c r="E105" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="F105" s="1">
         <v>39565</v>
@@ -11845,7 +11845,7 @@
         <v>24</v>
       </c>
       <c r="O493">
-        <v>4128794</v>
+        <v>4132161</v>
       </c>
     </row>
   </sheetData>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F99AE3-A746-254D-8484-B272C768543A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4B218-9537-634B-88C6-91AFDC1FB6B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -954,7 +954,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O496" sqref="O496"/>
+      <selection pane="bottomLeft" activeCell="D477" sqref="D477"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF4B218-9537-634B-88C6-91AFDC1FB6B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D835E36-13F5-C447-83BE-D0C741D0E9CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="26">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -950,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O493"/>
+  <dimension ref="A1:O511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D477" sqref="D477"/>
+      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L507" sqref="L507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11846,6 +11846,402 @@
       </c>
       <c r="O493">
         <v>4132161</v>
+      </c>
+    </row>
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>12</v>
+      </c>
+      <c r="B494">
+        <v>1568</v>
+      </c>
+      <c r="C494">
+        <v>1960</v>
+      </c>
+      <c r="K494">
+        <v>1</v>
+      </c>
+      <c r="L494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>14</v>
+      </c>
+      <c r="B495">
+        <v>1568</v>
+      </c>
+      <c r="D495">
+        <v>1398937</v>
+      </c>
+      <c r="E495" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F495" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>14</v>
+      </c>
+      <c r="B496">
+        <v>1568</v>
+      </c>
+      <c r="D496">
+        <v>902427</v>
+      </c>
+      <c r="E496" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F496" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>13</v>
+      </c>
+      <c r="B497">
+        <v>1568</v>
+      </c>
+      <c r="E497" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F497" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H497">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>15</v>
+      </c>
+      <c r="B498">
+        <v>1568</v>
+      </c>
+      <c r="D498">
+        <v>40223504</v>
+      </c>
+      <c r="E498" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F498" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I498">
+        <v>30</v>
+      </c>
+      <c r="J498">
+        <v>30</v>
+      </c>
+      <c r="M498" t="s">
+        <v>21</v>
+      </c>
+      <c r="N498" t="s">
+        <v>24</v>
+      </c>
+      <c r="O498" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>15</v>
+      </c>
+      <c r="B499">
+        <v>1568</v>
+      </c>
+      <c r="D499">
+        <v>1594707</v>
+      </c>
+      <c r="E499" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F499" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I499">
+        <v>30</v>
+      </c>
+      <c r="J499">
+        <v>30</v>
+      </c>
+      <c r="M499" t="s">
+        <v>21</v>
+      </c>
+      <c r="N499" t="s">
+        <v>24</v>
+      </c>
+      <c r="O499" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>12</v>
+      </c>
+      <c r="B500">
+        <v>1569</v>
+      </c>
+      <c r="C500">
+        <v>1966</v>
+      </c>
+      <c r="K500">
+        <v>1</v>
+      </c>
+      <c r="L500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>14</v>
+      </c>
+      <c r="B501">
+        <v>1569</v>
+      </c>
+      <c r="D501">
+        <v>1398937</v>
+      </c>
+      <c r="E501" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F501" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>14</v>
+      </c>
+      <c r="B502">
+        <v>1569</v>
+      </c>
+      <c r="D502">
+        <v>902427</v>
+      </c>
+      <c r="E502" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F502" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>13</v>
+      </c>
+      <c r="B503">
+        <v>1569</v>
+      </c>
+      <c r="E503" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F503" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H503">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>15</v>
+      </c>
+      <c r="B504">
+        <v>1569</v>
+      </c>
+      <c r="D504">
+        <v>19079775</v>
+      </c>
+      <c r="E504" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F504" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I504">
+        <v>20</v>
+      </c>
+      <c r="J504">
+        <v>30</v>
+      </c>
+      <c r="M504" t="s">
+        <v>23</v>
+      </c>
+      <c r="N504" t="s">
+        <v>24</v>
+      </c>
+      <c r="O504" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>15</v>
+      </c>
+      <c r="B505">
+        <v>1569</v>
+      </c>
+      <c r="D505">
+        <v>902489</v>
+      </c>
+      <c r="E505" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F505" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I505">
+        <v>5</v>
+      </c>
+      <c r="J505">
+        <v>30</v>
+      </c>
+      <c r="M505" t="s">
+        <v>23</v>
+      </c>
+      <c r="N505" t="s">
+        <v>24</v>
+      </c>
+      <c r="O505" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>12</v>
+      </c>
+      <c r="B506">
+        <v>1570</v>
+      </c>
+      <c r="C506">
+        <v>1950</v>
+      </c>
+      <c r="K506">
+        <v>1</v>
+      </c>
+      <c r="L506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>14</v>
+      </c>
+      <c r="B507">
+        <v>1570</v>
+      </c>
+      <c r="D507">
+        <v>1398937</v>
+      </c>
+      <c r="E507" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F507" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>14</v>
+      </c>
+      <c r="B508">
+        <v>1570</v>
+      </c>
+      <c r="D508">
+        <v>950370</v>
+      </c>
+      <c r="E508" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F508" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>13</v>
+      </c>
+      <c r="B509">
+        <v>1570</v>
+      </c>
+      <c r="E509" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F509" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H509">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>15</v>
+      </c>
+      <c r="B510">
+        <v>1570</v>
+      </c>
+      <c r="D510">
+        <v>40223506</v>
+      </c>
+      <c r="E510" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F510" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I510">
+        <v>10</v>
+      </c>
+      <c r="J510">
+        <v>10</v>
+      </c>
+      <c r="M510" t="s">
+        <v>20</v>
+      </c>
+      <c r="N510" t="s">
+        <v>24</v>
+      </c>
+      <c r="O510" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>15</v>
+      </c>
+      <c r="B511">
+        <v>1570</v>
+      </c>
+      <c r="D511">
+        <v>43219718</v>
+      </c>
+      <c r="E511" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F511" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I511">
+        <v>30</v>
+      </c>
+      <c r="J511">
+        <v>30</v>
+      </c>
+      <c r="M511" t="s">
+        <v>21</v>
+      </c>
+      <c r="N511" t="s">
+        <v>24</v>
+      </c>
+      <c r="O511" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D835E36-13F5-C447-83BE-D0C741D0E9CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A6693-A305-DE45-9C89-AFE01B3597DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="26">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -950,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O511"/>
+  <dimension ref="A1:O517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L507" sqref="L507"/>
+      <selection pane="bottomLeft" activeCell="G514" sqref="G514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12241,6 +12241,138 @@
         <v>24</v>
       </c>
       <c r="O511" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>12</v>
+      </c>
+      <c r="B512">
+        <v>1571</v>
+      </c>
+      <c r="C512">
+        <v>1950</v>
+      </c>
+      <c r="K512">
+        <v>1</v>
+      </c>
+      <c r="L512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>14</v>
+      </c>
+      <c r="B513">
+        <v>1571</v>
+      </c>
+      <c r="D513">
+        <v>19036781</v>
+      </c>
+      <c r="E513" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F513" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>14</v>
+      </c>
+      <c r="B514">
+        <v>1571</v>
+      </c>
+      <c r="D514">
+        <v>1777806</v>
+      </c>
+      <c r="E514" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F514" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>13</v>
+      </c>
+      <c r="B515">
+        <v>1571</v>
+      </c>
+      <c r="E515" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F515" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H515">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>15</v>
+      </c>
+      <c r="B516">
+        <v>1571</v>
+      </c>
+      <c r="D516">
+        <v>45775952</v>
+      </c>
+      <c r="E516" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F516" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I516">
+        <v>10</v>
+      </c>
+      <c r="J516">
+        <v>10</v>
+      </c>
+      <c r="M516" t="s">
+        <v>20</v>
+      </c>
+      <c r="N516" t="s">
+        <v>24</v>
+      </c>
+      <c r="O516" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>15</v>
+      </c>
+      <c r="B517">
+        <v>1571</v>
+      </c>
+      <c r="D517">
+        <v>46287321</v>
+      </c>
+      <c r="E517" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F517" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I517">
+        <v>1</v>
+      </c>
+      <c r="J517">
+        <v>1</v>
+      </c>
+      <c r="M517" t="s">
+        <v>20</v>
+      </c>
+      <c r="N517" t="s">
+        <v>24</v>
+      </c>
+      <c r="O517" t="s">
         <v>24</v>
       </c>
     </row>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7A6693-A305-DE45-9C89-AFE01B3597DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3946E55-D62A-134D-8494-B1965A9F2D3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,8 +953,8 @@
   <dimension ref="A1:O517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A494" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G514" sqref="G514"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3995,7 +3995,7 @@
         <v>1514</v>
       </c>
       <c r="D138">
-        <v>19076899</v>
+        <v>40226826</v>
       </c>
       <c r="E138" s="1">
         <v>39491</v>
@@ -4004,7 +4004,7 @@
         <v>39565</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -7049,7 +7049,7 @@
         <v>1534</v>
       </c>
       <c r="D276">
-        <v>19076899</v>
+        <v>19127146</v>
       </c>
       <c r="E276" s="1">
         <v>39492</v>
@@ -7058,13 +7058,13 @@
         <v>39565</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J276">
         <v>1</v>
       </c>
       <c r="M276" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N276" t="s">
         <v>24</v>
@@ -11792,7 +11792,7 @@
         <v>1567</v>
       </c>
       <c r="D492">
-        <v>19076899</v>
+        <v>19127146</v>
       </c>
       <c r="E492" s="1">
         <v>39492</v>
@@ -11801,13 +11801,13 @@
         <v>39565</v>
       </c>
       <c r="I492">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="J492">
         <v>1</v>
       </c>
       <c r="M492" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N492" t="s">
         <v>24</v>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3946E55-D62A-134D-8494-B1965A9F2D3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F10901-B72D-8E4A-A802-7AD4FBE2261F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$N$487</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$M$487</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="25">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>MEA</t>
-  </si>
-  <si>
-    <t>INDICATION_ID</t>
   </si>
   <si>
     <t>SIG</t>
@@ -950,16 +947,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O517"/>
+  <dimension ref="A1:N526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K145" sqref="K145"/>
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,16 +994,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1023,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1040,7 +1034,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1057,7 +1051,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1074,7 +1068,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1091,7 +1085,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1114,16 +1108,13 @@
         <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1146,16 +1137,13 @@
         <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1178,16 +1166,13 @@
         <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1207,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1209,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1226,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1243,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1260,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1298,16 +1283,13 @@
         <v>30</v>
       </c>
       <c r="M15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1330,16 +1312,13 @@
         <v>30</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1359,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1355,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1372,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1410,7 +1389,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1427,7 +1406,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1450,16 +1429,13 @@
         <v>30</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1482,16 +1458,13 @@
         <v>30</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1514,16 +1487,13 @@
         <v>30</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1543,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1560,7 +1530,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1577,7 +1547,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1594,7 +1564,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1611,7 +1581,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1634,16 +1604,13 @@
         <v>30</v>
       </c>
       <c r="M30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1666,16 +1633,13 @@
         <v>30</v>
       </c>
       <c r="M31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1698,16 +1662,13 @@
         <v>30</v>
       </c>
       <c r="M32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N32" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +1705,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -1761,7 +1722,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1739,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -1801,16 +1762,13 @@
         <v>30</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -1833,16 +1791,13 @@
         <v>30</v>
       </c>
       <c r="M38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N38" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1859,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -1876,7 +1831,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -1893,7 +1848,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -1910,7 +1865,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1933,16 +1888,13 @@
         <v>30</v>
       </c>
       <c r="M43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N43" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>15</v>
       </c>
@@ -1965,16 +1917,13 @@
         <v>30</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N44" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1994,7 +1943,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2011,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -2028,7 +1977,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -2045,7 +1994,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>14</v>
       </c>
@@ -2062,7 +2011,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -2079,7 +2028,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -2102,16 +2051,13 @@
         <v>30</v>
       </c>
       <c r="M51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N51" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>15</v>
       </c>
@@ -2134,16 +2080,13 @@
         <v>30</v>
       </c>
       <c r="M52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N52" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>15</v>
       </c>
@@ -2166,16 +2109,13 @@
         <v>30</v>
       </c>
       <c r="M53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N53" t="s">
-        <v>24</v>
-      </c>
-      <c r="O53" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -2195,7 +2135,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2212,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -2229,7 +2169,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2186,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -2263,7 +2203,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -2286,16 +2226,13 @@
         <v>30</v>
       </c>
       <c r="M59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N59" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -2318,16 +2255,13 @@
         <v>30</v>
       </c>
       <c r="M60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N60" t="s">
-        <v>24</v>
-      </c>
-      <c r="O60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -2347,7 +2281,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -2367,7 +2301,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2384,7 +2318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>14</v>
       </c>
@@ -2401,7 +2335,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2418,7 +2352,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2435,7 +2369,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2458,16 +2392,13 @@
         <v>10</v>
       </c>
       <c r="M67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N67" t="s">
-        <v>24</v>
-      </c>
-      <c r="O67" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2490,16 +2421,13 @@
         <v>30</v>
       </c>
       <c r="M68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N68" t="s">
-        <v>24</v>
-      </c>
-      <c r="O68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2447,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -2539,7 +2467,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -2573,7 +2501,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -2590,7 +2518,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -2607,7 +2535,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -2630,16 +2558,13 @@
         <v>30</v>
       </c>
       <c r="M75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N75" t="s">
-        <v>24</v>
-      </c>
-      <c r="O75" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>15</v>
       </c>
@@ -2662,16 +2587,13 @@
         <v>30</v>
       </c>
       <c r="M76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N76" t="s">
-        <v>24</v>
-      </c>
-      <c r="O76" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2688,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2705,7 +2627,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>14</v>
       </c>
@@ -2722,7 +2644,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -2739,7 +2661,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2762,16 +2684,13 @@
         <v>30</v>
       </c>
       <c r="M81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N81" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2794,16 +2713,13 @@
         <v>30</v>
       </c>
       <c r="M82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N82" t="s">
-        <v>24</v>
-      </c>
-      <c r="O82" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>12</v>
       </c>
@@ -2820,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>14</v>
       </c>
@@ -2837,7 +2753,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>14</v>
       </c>
@@ -2854,7 +2770,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -2871,7 +2787,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -2894,16 +2810,13 @@
         <v>30</v>
       </c>
       <c r="M87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N87" t="s">
-        <v>24</v>
-      </c>
-      <c r="O87" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -2926,16 +2839,13 @@
         <v>30</v>
       </c>
       <c r="M88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N88" t="s">
-        <v>24</v>
-      </c>
-      <c r="O88" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>12</v>
       </c>
@@ -2952,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -2969,7 +2879,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>14</v>
       </c>
@@ -2986,7 +2896,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -3003,7 +2913,7 @@
         <v>9202</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -3026,16 +2936,13 @@
         <v>30</v>
       </c>
       <c r="M93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N93" t="s">
-        <v>24</v>
-      </c>
-      <c r="O93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -3058,16 +2965,13 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N94" t="s">
-        <v>24</v>
-      </c>
-      <c r="O94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -3084,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>14</v>
       </c>
@@ -3101,7 +3005,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>14</v>
       </c>
@@ -3118,7 +3022,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -3135,7 +3039,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -3158,16 +3062,13 @@
         <v>10</v>
       </c>
       <c r="M99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N99" t="s">
-        <v>24</v>
-      </c>
-      <c r="O99" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -3190,16 +3091,13 @@
         <v>30</v>
       </c>
       <c r="M100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N100" t="s">
-        <v>24</v>
-      </c>
-      <c r="O100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -3216,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>14</v>
       </c>
@@ -3233,7 +3131,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3148,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -3267,7 +3165,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -3290,16 +3188,13 @@
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N105" t="s">
-        <v>24</v>
-      </c>
-      <c r="O105" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -3322,16 +3217,13 @@
         <v>30</v>
       </c>
       <c r="M106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N106" t="s">
-        <v>24</v>
-      </c>
-      <c r="O106" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>12</v>
       </c>
@@ -3348,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>14</v>
       </c>
@@ -3365,7 +3257,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>14</v>
       </c>
@@ -3382,7 +3274,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -3399,7 +3291,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -3422,16 +3314,13 @@
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N111" t="s">
-        <v>24</v>
-      </c>
-      <c r="O111" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -3454,16 +3343,13 @@
         <v>30</v>
       </c>
       <c r="M112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N112" t="s">
-        <v>24</v>
-      </c>
-      <c r="O112" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>12</v>
       </c>
@@ -3480,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -3497,7 +3383,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -3514,7 +3400,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>13</v>
       </c>
@@ -3531,7 +3417,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -3554,16 +3440,13 @@
         <v>1</v>
       </c>
       <c r="M117" t="s">
-        <v>23</v>
-      </c>
-      <c r="N117">
-        <v>4340851</v>
-      </c>
-      <c r="O117" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="N117" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -3586,16 +3469,13 @@
         <v>30</v>
       </c>
       <c r="M118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N118" t="s">
-        <v>24</v>
-      </c>
-      <c r="O118" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -3615,7 +3495,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>12</v>
       </c>
@@ -3632,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -3649,7 +3529,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>14</v>
       </c>
@@ -3666,7 +3546,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -3683,7 +3563,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -3706,16 +3586,13 @@
         <v>1</v>
       </c>
       <c r="M124" t="s">
-        <v>23</v>
-      </c>
-      <c r="N124">
-        <v>4340851</v>
-      </c>
-      <c r="O124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="N124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -3738,16 +3615,13 @@
         <v>30</v>
       </c>
       <c r="M125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N125" t="s">
-        <v>24</v>
-      </c>
-      <c r="O125" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -3767,7 +3641,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>12</v>
       </c>
@@ -3784,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>14</v>
       </c>
@@ -3801,7 +3675,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>14</v>
       </c>
@@ -3818,7 +3692,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>13</v>
       </c>
@@ -3835,7 +3709,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -3858,16 +3732,13 @@
         <v>1</v>
       </c>
       <c r="M131" t="s">
-        <v>23</v>
-      </c>
-      <c r="N131">
-        <v>4340851</v>
-      </c>
-      <c r="O131" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="N131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -3890,16 +3761,13 @@
         <v>30</v>
       </c>
       <c r="M132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N132" t="s">
-        <v>24</v>
-      </c>
-      <c r="O132" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -3919,7 +3787,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>12</v>
       </c>
@@ -3936,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>14</v>
       </c>
@@ -3953,7 +3821,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>14</v>
       </c>
@@ -3970,7 +3838,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>13</v>
       </c>
@@ -3987,7 +3855,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -4010,16 +3878,13 @@
         <v>1</v>
       </c>
       <c r="M138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N138" t="s">
-        <v>24</v>
-      </c>
-      <c r="O138" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -4042,16 +3907,13 @@
         <v>30</v>
       </c>
       <c r="M139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N139" t="s">
-        <v>24</v>
-      </c>
-      <c r="O139" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>17</v>
       </c>
@@ -4071,7 +3933,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>12</v>
       </c>
@@ -4088,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>14</v>
       </c>
@@ -4105,7 +3967,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>14</v>
       </c>
@@ -4122,7 +3984,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>13</v>
       </c>
@@ -4139,7 +4001,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -4162,16 +4024,13 @@
         <v>1</v>
       </c>
       <c r="M145" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N145" t="s">
-        <v>24</v>
-      </c>
-      <c r="O145" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -4194,16 +4053,13 @@
         <v>30</v>
       </c>
       <c r="M146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N146" t="s">
-        <v>24</v>
-      </c>
-      <c r="O146" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>12</v>
       </c>
@@ -4220,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>14</v>
       </c>
@@ -4237,7 +4093,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -4254,7 +4110,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>13</v>
       </c>
@@ -4271,7 +4127,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -4294,16 +4150,13 @@
         <v>1</v>
       </c>
       <c r="M151" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N151" t="s">
-        <v>24</v>
-      </c>
-      <c r="O151" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -4326,16 +4179,13 @@
         <v>30</v>
       </c>
       <c r="M152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N152" t="s">
-        <v>24</v>
-      </c>
-      <c r="O152" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -4352,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -4369,7 +4219,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -4386,7 +4236,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -4403,7 +4253,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>13</v>
       </c>
@@ -4420,7 +4270,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -4443,16 +4293,13 @@
         <v>1</v>
       </c>
       <c r="M158" t="s">
-        <v>23</v>
-      </c>
-      <c r="N158">
-        <v>4340851</v>
-      </c>
-      <c r="O158" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="N158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -4475,16 +4322,13 @@
         <v>30</v>
       </c>
       <c r="M159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N159" t="s">
-        <v>24</v>
-      </c>
-      <c r="O159" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -4507,16 +4351,13 @@
         <v>30</v>
       </c>
       <c r="M160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N160" t="s">
-        <v>24</v>
-      </c>
-      <c r="O160" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -4533,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -4550,7 +4391,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -4567,7 +4408,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -4584,7 +4425,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -4607,16 +4448,13 @@
         <v>1</v>
       </c>
       <c r="M165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N165" t="s">
-        <v>24</v>
-      </c>
-      <c r="O165" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -4639,16 +4477,13 @@
         <v>30</v>
       </c>
       <c r="M166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N166" t="s">
-        <v>24</v>
-      </c>
-      <c r="O166" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>12</v>
       </c>
@@ -4665,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4517,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -4699,7 +4534,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -4716,7 +4551,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -4733,7 +4568,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>15</v>
       </c>
@@ -4756,16 +4591,13 @@
         <v>1</v>
       </c>
       <c r="M172" t="s">
-        <v>23</v>
-      </c>
-      <c r="N172">
-        <v>4340851</v>
-      </c>
-      <c r="O172" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="N172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>15</v>
       </c>
@@ -4788,16 +4620,13 @@
         <v>30</v>
       </c>
       <c r="M173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N173" t="s">
-        <v>24</v>
-      </c>
-      <c r="O173" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>15</v>
       </c>
@@ -4820,16 +4649,13 @@
         <v>30</v>
       </c>
       <c r="M174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N174" t="s">
-        <v>24</v>
-      </c>
-      <c r="O174" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -4846,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -4863,7 +4689,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -4880,7 +4706,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -4897,7 +4723,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -4914,7 +4740,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>15</v>
       </c>
@@ -4937,16 +4763,13 @@
         <v>1</v>
       </c>
       <c r="M180" t="s">
-        <v>23</v>
-      </c>
-      <c r="N180">
-        <v>4340851</v>
-      </c>
-      <c r="O180" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="N180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>15</v>
       </c>
@@ -4969,16 +4792,13 @@
         <v>30</v>
       </c>
       <c r="M181" t="s">
-        <v>20</v>
-      </c>
-      <c r="N181" t="s">
-        <v>24</v>
-      </c>
-      <c r="O181">
+        <v>19</v>
+      </c>
+      <c r="N181">
         <v>4184451</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>15</v>
       </c>
@@ -5001,16 +4821,13 @@
         <v>30</v>
       </c>
       <c r="M182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N182" t="s">
-        <v>24</v>
-      </c>
-      <c r="O182" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>12</v>
       </c>
@@ -5027,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -5044,7 +4861,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -5061,7 +4878,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -5078,7 +4895,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -5101,16 +4918,13 @@
         <v>1</v>
       </c>
       <c r="M187" t="s">
-        <v>23</v>
-      </c>
-      <c r="N187">
-        <v>4340851</v>
-      </c>
-      <c r="O187" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="N187" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -5133,16 +4947,13 @@
         <v>30</v>
       </c>
       <c r="M188" t="s">
-        <v>20</v>
-      </c>
-      <c r="N188" t="s">
-        <v>24</v>
-      </c>
-      <c r="O188">
+        <v>19</v>
+      </c>
+      <c r="N188">
         <v>4184451</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>12</v>
       </c>
@@ -5159,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -5176,7 +4987,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5193,7 +5004,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -5210,7 +5021,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -5233,16 +5044,13 @@
         <v>30</v>
       </c>
       <c r="M193" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N193" t="s">
-        <v>24</v>
-      </c>
-      <c r="O193" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -5265,16 +5073,13 @@
         <v>10</v>
       </c>
       <c r="M194" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N194" t="s">
-        <v>24</v>
-      </c>
-      <c r="O194" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -5291,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -5308,7 +5113,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -5325,7 +5130,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -5342,7 +5147,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -5365,16 +5170,13 @@
         <v>30</v>
       </c>
       <c r="M199" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N199" t="s">
-        <v>24</v>
-      </c>
-      <c r="O199" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -5397,16 +5199,13 @@
         <v>10</v>
       </c>
       <c r="M200" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N200" t="s">
-        <v>24</v>
-      </c>
-      <c r="O200" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>12</v>
       </c>
@@ -5423,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -5440,7 +5239,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -5457,7 +5256,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>13</v>
       </c>
@@ -5474,7 +5273,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>15</v>
       </c>
@@ -5497,16 +5296,13 @@
         <v>30</v>
       </c>
       <c r="M205" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N205" t="s">
-        <v>24</v>
-      </c>
-      <c r="O205" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>15</v>
       </c>
@@ -5529,16 +5325,13 @@
         <v>10</v>
       </c>
       <c r="M206" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N206" t="s">
-        <v>24</v>
-      </c>
-      <c r="O206" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -5555,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -5572,7 +5365,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -5589,7 +5382,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -5606,7 +5399,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>15</v>
       </c>
@@ -5629,16 +5422,13 @@
         <v>30</v>
       </c>
       <c r="M211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N211" t="s">
-        <v>24</v>
-      </c>
-      <c r="O211" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>15</v>
       </c>
@@ -5661,16 +5451,13 @@
         <v>30</v>
       </c>
       <c r="M212" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N212" t="s">
-        <v>24</v>
-      </c>
-      <c r="O212" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>12</v>
       </c>
@@ -5687,7 +5474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -5704,7 +5491,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -5721,7 +5508,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -5738,7 +5525,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -5755,7 +5542,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>15</v>
       </c>
@@ -5778,16 +5565,13 @@
         <v>30</v>
       </c>
       <c r="M218" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N218" t="s">
-        <v>24</v>
-      </c>
-      <c r="O218" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>15</v>
       </c>
@@ -5810,16 +5594,13 @@
         <v>30</v>
       </c>
       <c r="M219" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N219" t="s">
-        <v>24</v>
-      </c>
-      <c r="O219" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>15</v>
       </c>
@@ -5842,16 +5623,13 @@
         <v>30</v>
       </c>
       <c r="M220" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N220" t="s">
-        <v>24</v>
-      </c>
-      <c r="O220" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>12</v>
       </c>
@@ -5868,7 +5646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
@@ -5885,7 +5663,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>14</v>
       </c>
@@ -5902,7 +5680,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>14</v>
       </c>
@@ -5919,7 +5697,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -5936,7 +5714,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -5953,7 +5731,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -5976,16 +5754,13 @@
         <v>30</v>
       </c>
       <c r="M227" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N227" t="s">
-        <v>24</v>
-      </c>
-      <c r="O227" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -6008,16 +5783,13 @@
         <v>30</v>
       </c>
       <c r="M228" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N228" t="s">
-        <v>24</v>
-      </c>
-      <c r="O228" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -6040,16 +5812,13 @@
         <v>30</v>
       </c>
       <c r="M229" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N229" t="s">
-        <v>24</v>
-      </c>
-      <c r="O229" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -6072,16 +5841,13 @@
         <v>30</v>
       </c>
       <c r="M230" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N230" t="s">
-        <v>24</v>
-      </c>
-      <c r="O230" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>12</v>
       </c>
@@ -6098,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>14</v>
       </c>
@@ -6115,7 +5881,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>14</v>
       </c>
@@ -6132,7 +5898,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -6149,7 +5915,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -6166,7 +5932,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -6189,16 +5955,13 @@
         <v>30</v>
       </c>
       <c r="M236" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N236" t="s">
-        <v>24</v>
-      </c>
-      <c r="O236" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -6221,16 +5984,13 @@
         <v>30</v>
       </c>
       <c r="M237" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N237" t="s">
-        <v>24</v>
-      </c>
-      <c r="O237" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>12</v>
       </c>
@@ -6247,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>14</v>
       </c>
@@ -6264,7 +6024,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>14</v>
       </c>
@@ -6281,7 +6041,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -6298,7 +6058,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -6321,16 +6081,13 @@
         <v>30</v>
       </c>
       <c r="M242" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N242" t="s">
-        <v>24</v>
-      </c>
-      <c r="O242" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -6353,16 +6110,13 @@
         <v>30</v>
       </c>
       <c r="M243" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N243" t="s">
-        <v>24</v>
-      </c>
-      <c r="O243" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>12</v>
       </c>
@@ -6379,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>14</v>
       </c>
@@ -6396,7 +6150,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>14</v>
       </c>
@@ -6413,7 +6167,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -6430,7 +6184,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -6453,16 +6207,13 @@
         <v>30</v>
       </c>
       <c r="M248" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N248" t="s">
-        <v>24</v>
-      </c>
-      <c r="O248" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -6485,16 +6236,13 @@
         <v>30</v>
       </c>
       <c r="M249" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N249" t="s">
-        <v>24</v>
-      </c>
-      <c r="O249" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>12</v>
       </c>
@@ -6511,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>14</v>
       </c>
@@ -6528,7 +6276,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>14</v>
       </c>
@@ -6545,7 +6293,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>13</v>
       </c>
@@ -6562,7 +6310,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -6585,16 +6333,13 @@
         <v>30</v>
       </c>
       <c r="M254" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N254" t="s">
-        <v>24</v>
-      </c>
-      <c r="O254" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -6617,16 +6362,13 @@
         <v>30</v>
       </c>
       <c r="M255" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N255" t="s">
-        <v>24</v>
-      </c>
-      <c r="O255" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>12</v>
       </c>
@@ -6643,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>14</v>
       </c>
@@ -6660,7 +6402,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -6677,7 +6419,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>14</v>
       </c>
@@ -6694,7 +6436,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>13</v>
       </c>
@@ -6711,7 +6453,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -6734,16 +6476,13 @@
         <v>30</v>
       </c>
       <c r="M261" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N261" t="s">
-        <v>24</v>
-      </c>
-      <c r="O261" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -6766,16 +6505,13 @@
         <v>30</v>
       </c>
       <c r="M262" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N262" t="s">
-        <v>24</v>
-      </c>
-      <c r="O262" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -6798,16 +6534,13 @@
         <v>30</v>
       </c>
       <c r="M263" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N263" t="s">
-        <v>24</v>
-      </c>
-      <c r="O263" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -6824,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>14</v>
       </c>
@@ -6841,7 +6574,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>14</v>
       </c>
@@ -6858,7 +6591,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -6875,7 +6608,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>13</v>
       </c>
@@ -6892,7 +6625,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -6915,16 +6648,13 @@
         <v>1</v>
       </c>
       <c r="M269" t="s">
-        <v>23</v>
-      </c>
-      <c r="N269">
-        <v>4340851</v>
-      </c>
-      <c r="O269" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="N269" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -6947,16 +6677,13 @@
         <v>30</v>
       </c>
       <c r="M270" t="s">
-        <v>20</v>
-      </c>
-      <c r="N270" t="s">
-        <v>24</v>
-      </c>
-      <c r="O270">
+        <v>19</v>
+      </c>
+      <c r="N270">
         <v>4184451</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>12</v>
       </c>
@@ -6973,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>14</v>
       </c>
@@ -6990,7 +6717,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>14</v>
       </c>
@@ -7007,7 +6734,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>16</v>
       </c>
@@ -7024,7 +6751,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>13</v>
       </c>
@@ -7041,7 +6768,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -7064,16 +6791,13 @@
         <v>1</v>
       </c>
       <c r="M276" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N276" t="s">
-        <v>24</v>
-      </c>
-      <c r="O276" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -7096,16 +6820,13 @@
         <v>30</v>
       </c>
       <c r="M277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N277" t="s">
-        <v>24</v>
-      </c>
-      <c r="O277" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -7122,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>14</v>
       </c>
@@ -7139,7 +6860,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -7156,7 +6877,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -7173,7 +6894,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>13</v>
       </c>
@@ -7190,7 +6911,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -7213,16 +6934,13 @@
         <v>1</v>
       </c>
       <c r="M283" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N283" t="s">
-        <v>24</v>
-      </c>
-      <c r="O283" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -7245,16 +6963,13 @@
         <v>30</v>
       </c>
       <c r="M284" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N284" t="s">
-        <v>24</v>
-      </c>
-      <c r="O284" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>12</v>
       </c>
@@ -7271,7 +6986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>14</v>
       </c>
@@ -7288,7 +7003,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>14</v>
       </c>
@@ -7305,7 +7020,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>13</v>
       </c>
@@ -7322,7 +7037,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -7345,16 +7060,13 @@
         <v>1</v>
       </c>
       <c r="M289" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N289" t="s">
-        <v>24</v>
-      </c>
-      <c r="O289" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -7377,16 +7089,13 @@
         <v>1</v>
       </c>
       <c r="M290" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N290" t="s">
-        <v>24</v>
-      </c>
-      <c r="O290" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>12</v>
       </c>
@@ -7403,7 +7112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>14</v>
       </c>
@@ -7420,7 +7129,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>14</v>
       </c>
@@ -7437,7 +7146,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>13</v>
       </c>
@@ -7454,7 +7163,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -7477,16 +7186,13 @@
         <v>1</v>
       </c>
       <c r="M295" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N295" t="s">
-        <v>24</v>
-      </c>
-      <c r="O295" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -7509,16 +7215,13 @@
         <v>1</v>
       </c>
       <c r="M296" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N296" t="s">
-        <v>24</v>
-      </c>
-      <c r="O296" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>12</v>
       </c>
@@ -7535,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>14</v>
       </c>
@@ -7552,7 +7255,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>14</v>
       </c>
@@ -7569,7 +7272,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>13</v>
       </c>
@@ -7586,7 +7289,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -7609,16 +7312,13 @@
         <v>30</v>
       </c>
       <c r="M301" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N301" t="s">
-        <v>24</v>
-      </c>
-      <c r="O301" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -7641,16 +7341,13 @@
         <v>30</v>
       </c>
       <c r="M302" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N302" t="s">
-        <v>24</v>
-      </c>
-      <c r="O302" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>12</v>
       </c>
@@ -7667,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>14</v>
       </c>
@@ -7684,7 +7381,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>14</v>
       </c>
@@ -7701,7 +7398,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>13</v>
       </c>
@@ -7718,7 +7415,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -7741,16 +7438,13 @@
         <v>30</v>
       </c>
       <c r="M307" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N307" t="s">
-        <v>24</v>
-      </c>
-      <c r="O307" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -7773,16 +7467,13 @@
         <v>30</v>
       </c>
       <c r="M308" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N308" t="s">
-        <v>24</v>
-      </c>
-      <c r="O308" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -7799,7 +7490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>14</v>
       </c>
@@ -7816,7 +7507,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -7833,7 +7524,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>13</v>
       </c>
@@ -7850,7 +7541,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -7873,16 +7564,13 @@
         <v>30</v>
       </c>
       <c r="M313" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N313" t="s">
-        <v>24</v>
-      </c>
-      <c r="O313" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -7905,16 +7593,13 @@
         <v>30</v>
       </c>
       <c r="M314" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N314" t="s">
-        <v>24</v>
-      </c>
-      <c r="O314" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -7931,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>14</v>
       </c>
@@ -7948,7 +7633,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>14</v>
       </c>
@@ -7965,7 +7650,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>13</v>
       </c>
@@ -7982,7 +7667,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -8005,16 +7690,13 @@
         <v>30</v>
       </c>
       <c r="M319" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N319" t="s">
-        <v>24</v>
-      </c>
-      <c r="O319" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -8037,16 +7719,13 @@
         <v>30</v>
       </c>
       <c r="M320" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N320" t="s">
-        <v>24</v>
-      </c>
-      <c r="O320" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>12</v>
       </c>
@@ -8063,7 +7742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>14</v>
       </c>
@@ -8080,7 +7759,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>14</v>
       </c>
@@ -8097,7 +7776,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>13</v>
       </c>
@@ -8114,7 +7793,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -8137,16 +7816,13 @@
         <v>30</v>
       </c>
       <c r="M325" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N325" t="s">
-        <v>24</v>
-      </c>
-      <c r="O325" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -8169,16 +7845,13 @@
         <v>30</v>
       </c>
       <c r="M326" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N326" t="s">
-        <v>24</v>
-      </c>
-      <c r="O326" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>12</v>
       </c>
@@ -8195,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>14</v>
       </c>
@@ -8212,7 +7885,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>14</v>
       </c>
@@ -8229,7 +7902,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -8246,7 +7919,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -8269,16 +7942,13 @@
         <v>30</v>
       </c>
       <c r="M331" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N331" t="s">
-        <v>24</v>
-      </c>
-      <c r="O331" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -8301,16 +7971,13 @@
         <v>30</v>
       </c>
       <c r="M332" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N332" t="s">
-        <v>24</v>
-      </c>
-      <c r="O332" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>12</v>
       </c>
@@ -8327,7 +7994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>14</v>
       </c>
@@ -8344,7 +8011,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>14</v>
       </c>
@@ -8361,7 +8028,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>13</v>
       </c>
@@ -8378,7 +8045,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -8401,16 +8068,13 @@
         <v>30</v>
       </c>
       <c r="M337" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N337" t="s">
-        <v>24</v>
-      </c>
-      <c r="O337" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -8433,16 +8097,13 @@
         <v>30</v>
       </c>
       <c r="M338" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N338" t="s">
-        <v>24</v>
-      </c>
-      <c r="O338" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -8462,7 +8123,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>12</v>
       </c>
@@ -8479,7 +8140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>14</v>
       </c>
@@ -8496,7 +8157,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>14</v>
       </c>
@@ -8513,7 +8174,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>13</v>
       </c>
@@ -8530,7 +8191,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -8553,16 +8214,13 @@
         <v>1</v>
       </c>
       <c r="M344" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N344" t="s">
-        <v>24</v>
-      </c>
-      <c r="O344" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>15</v>
       </c>
@@ -8585,16 +8243,13 @@
         <v>30</v>
       </c>
       <c r="M345" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N345" t="s">
-        <v>24</v>
-      </c>
-      <c r="O345" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>12</v>
       </c>
@@ -8611,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>14</v>
       </c>
@@ -8628,7 +8283,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>14</v>
       </c>
@@ -8645,7 +8300,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>14</v>
       </c>
@@ -8662,7 +8317,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>13</v>
       </c>
@@ -8679,7 +8334,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>15</v>
       </c>
@@ -8702,16 +8357,13 @@
         <v>1</v>
       </c>
       <c r="M351" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N351" t="s">
-        <v>24</v>
-      </c>
-      <c r="O351" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>15</v>
       </c>
@@ -8734,16 +8386,13 @@
         <v>30</v>
       </c>
       <c r="M352" t="s">
-        <v>20</v>
-      </c>
-      <c r="N352" t="s">
-        <v>24</v>
-      </c>
-      <c r="O352">
+        <v>19</v>
+      </c>
+      <c r="N352">
         <v>4184451</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>15</v>
       </c>
@@ -8766,16 +8415,13 @@
         <v>30</v>
       </c>
       <c r="M353" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N353" t="s">
-        <v>24</v>
-      </c>
-      <c r="O353" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>12</v>
       </c>
@@ -8792,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>14</v>
       </c>
@@ -8809,7 +8455,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>14</v>
       </c>
@@ -8826,7 +8472,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>13</v>
       </c>
@@ -8843,7 +8489,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>15</v>
       </c>
@@ -8866,16 +8512,13 @@
         <v>1</v>
       </c>
       <c r="M358" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N358" t="s">
-        <v>24</v>
-      </c>
-      <c r="O358" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>15</v>
       </c>
@@ -8898,16 +8541,13 @@
         <v>30</v>
       </c>
       <c r="M359" t="s">
-        <v>20</v>
-      </c>
-      <c r="N359" t="s">
-        <v>24</v>
-      </c>
-      <c r="O359">
+        <v>19</v>
+      </c>
+      <c r="N359">
         <v>4184451</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>12</v>
       </c>
@@ -8924,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>14</v>
       </c>
@@ -8941,7 +8581,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>14</v>
       </c>
@@ -8958,7 +8598,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -8975,7 +8615,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>13</v>
       </c>
@@ -8992,7 +8632,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>15</v>
       </c>
@@ -9015,16 +8655,13 @@
         <v>1</v>
       </c>
       <c r="M365" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N365" t="s">
-        <v>24</v>
-      </c>
-      <c r="O365" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>15</v>
       </c>
@@ -9047,16 +8684,13 @@
         <v>30</v>
       </c>
       <c r="M366" t="s">
-        <v>20</v>
-      </c>
-      <c r="N366" t="s">
-        <v>24</v>
-      </c>
-      <c r="O366">
+        <v>19</v>
+      </c>
+      <c r="N366">
         <v>4184451</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>12</v>
       </c>
@@ -9073,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>14</v>
       </c>
@@ -9090,7 +8724,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>14</v>
       </c>
@@ -9107,7 +8741,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>13</v>
       </c>
@@ -9124,7 +8758,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>15</v>
       </c>
@@ -9147,16 +8781,13 @@
         <v>1</v>
       </c>
       <c r="M371" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N371" t="s">
-        <v>24</v>
-      </c>
-      <c r="O371" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>15</v>
       </c>
@@ -9179,16 +8810,13 @@
         <v>30</v>
       </c>
       <c r="M372" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N372" t="s">
-        <v>24</v>
-      </c>
-      <c r="O372" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>12</v>
       </c>
@@ -9205,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>14</v>
       </c>
@@ -9222,7 +8850,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>14</v>
       </c>
@@ -9239,7 +8867,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>14</v>
       </c>
@@ -9256,7 +8884,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>13</v>
       </c>
@@ -9273,7 +8901,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>15</v>
       </c>
@@ -9296,16 +8924,13 @@
         <v>1</v>
       </c>
       <c r="M378" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N378" t="s">
-        <v>24</v>
-      </c>
-      <c r="O378" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>15</v>
       </c>
@@ -9328,16 +8953,13 @@
         <v>30</v>
       </c>
       <c r="M379" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N379" t="s">
-        <v>24</v>
-      </c>
-      <c r="O379" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>15</v>
       </c>
@@ -9360,16 +8982,13 @@
         <v>30</v>
       </c>
       <c r="M380" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N380" t="s">
-        <v>24</v>
-      </c>
-      <c r="O380" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>12</v>
       </c>
@@ -9386,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -9403,7 +9022,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>14</v>
       </c>
@@ -9420,7 +9039,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>16</v>
       </c>
@@ -9437,7 +9056,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>13</v>
       </c>
@@ -9454,7 +9073,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -9477,16 +9096,13 @@
         <v>1</v>
       </c>
       <c r="M386" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N386" t="s">
-        <v>24</v>
-      </c>
-      <c r="O386" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>15</v>
       </c>
@@ -9509,16 +9125,13 @@
         <v>30</v>
       </c>
       <c r="M387" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N387" t="s">
-        <v>24</v>
-      </c>
-      <c r="O387" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>12</v>
       </c>
@@ -9535,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>14</v>
       </c>
@@ -9552,7 +9165,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>14</v>
       </c>
@@ -9569,7 +9182,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>13</v>
       </c>
@@ -9586,7 +9199,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>15</v>
       </c>
@@ -9609,16 +9222,13 @@
         <v>1</v>
       </c>
       <c r="M392" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N392" t="s">
-        <v>24</v>
-      </c>
-      <c r="O392" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>15</v>
       </c>
@@ -9641,16 +9251,13 @@
         <v>30</v>
       </c>
       <c r="M393" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N393" t="s">
-        <v>24</v>
-      </c>
-      <c r="O393" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>12</v>
       </c>
@@ -9667,7 +9274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>14</v>
       </c>
@@ -9684,7 +9291,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>14</v>
       </c>
@@ -9701,7 +9308,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>14</v>
       </c>
@@ -9718,7 +9325,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>13</v>
       </c>
@@ -9735,7 +9342,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>15</v>
       </c>
@@ -9758,16 +9365,13 @@
         <v>1</v>
       </c>
       <c r="M399" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N399" t="s">
-        <v>24</v>
-      </c>
-      <c r="O399" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>15</v>
       </c>
@@ -9790,16 +9394,13 @@
         <v>30</v>
       </c>
       <c r="M400" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N400" t="s">
-        <v>24</v>
-      </c>
-      <c r="O400" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>15</v>
       </c>
@@ -9822,16 +9423,13 @@
         <v>30</v>
       </c>
       <c r="M401" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N401" t="s">
-        <v>24</v>
-      </c>
-      <c r="O401" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -9848,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>14</v>
       </c>
@@ -9865,7 +9463,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>14</v>
       </c>
@@ -9882,7 +9480,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -9899,7 +9497,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>13</v>
       </c>
@@ -9916,7 +9514,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>15</v>
       </c>
@@ -9939,16 +9537,13 @@
         <v>1</v>
       </c>
       <c r="M407" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N407" t="s">
-        <v>24</v>
-      </c>
-      <c r="O407" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>15</v>
       </c>
@@ -9971,16 +9566,13 @@
         <v>30</v>
       </c>
       <c r="M408" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N408" t="s">
-        <v>24</v>
-      </c>
-      <c r="O408" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>12</v>
       </c>
@@ -9997,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>14</v>
       </c>
@@ -10014,7 +9606,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>14</v>
       </c>
@@ -10031,7 +9623,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>13</v>
       </c>
@@ -10048,7 +9640,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>15</v>
       </c>
@@ -10071,16 +9663,13 @@
         <v>1</v>
       </c>
       <c r="M413" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N413" t="s">
-        <v>24</v>
-      </c>
-      <c r="O413" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>15</v>
       </c>
@@ -10103,16 +9692,13 @@
         <v>30</v>
       </c>
       <c r="M414" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N414" t="s">
-        <v>24</v>
-      </c>
-      <c r="O414" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>17</v>
       </c>
@@ -10132,7 +9718,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>12</v>
       </c>
@@ -10149,7 +9735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>14</v>
       </c>
@@ -10166,7 +9752,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>14</v>
       </c>
@@ -10183,7 +9769,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>13</v>
       </c>
@@ -10200,7 +9786,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>15</v>
       </c>
@@ -10223,16 +9809,13 @@
         <v>1</v>
       </c>
       <c r="M420" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N420" t="s">
-        <v>24</v>
-      </c>
-      <c r="O420" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="421" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>15</v>
       </c>
@@ -10255,16 +9838,13 @@
         <v>30</v>
       </c>
       <c r="M421" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N421" t="s">
-        <v>24</v>
-      </c>
-      <c r="O421" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="422" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>17</v>
       </c>
@@ -10284,7 +9864,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>12</v>
       </c>
@@ -10301,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>14</v>
       </c>
@@ -10318,7 +9898,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>14</v>
       </c>
@@ -10335,7 +9915,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>13</v>
       </c>
@@ -10352,7 +9932,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>15</v>
       </c>
@@ -10375,16 +9955,13 @@
         <v>1</v>
       </c>
       <c r="M427" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N427" t="s">
-        <v>24</v>
-      </c>
-      <c r="O427" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>15</v>
       </c>
@@ -10407,16 +9984,13 @@
         <v>30</v>
       </c>
       <c r="M428" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N428" t="s">
-        <v>24</v>
-      </c>
-      <c r="O428" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>17</v>
       </c>
@@ -10436,7 +10010,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>12</v>
       </c>
@@ -10453,7 +10027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>14</v>
       </c>
@@ -10470,7 +10044,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>14</v>
       </c>
@@ -10487,7 +10061,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>13</v>
       </c>
@@ -10504,7 +10078,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>15</v>
       </c>
@@ -10527,16 +10101,13 @@
         <v>1</v>
       </c>
       <c r="M434" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N434" t="s">
-        <v>24</v>
-      </c>
-      <c r="O434" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>15</v>
       </c>
@@ -10559,16 +10130,13 @@
         <v>30</v>
       </c>
       <c r="M435" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N435" t="s">
-        <v>24</v>
-      </c>
-      <c r="O435" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="436" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>17</v>
       </c>
@@ -10588,7 +10156,7 @@
         <v>8795</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>12</v>
       </c>
@@ -10605,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>14</v>
       </c>
@@ -10622,7 +10190,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>14</v>
       </c>
@@ -10639,7 +10207,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>13</v>
       </c>
@@ -10656,7 +10224,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -10679,16 +10247,13 @@
         <v>1</v>
       </c>
       <c r="M441" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N441" t="s">
-        <v>24</v>
-      </c>
-      <c r="O441" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="442" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -10711,16 +10276,13 @@
         <v>30</v>
       </c>
       <c r="M442" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N442" t="s">
-        <v>24</v>
-      </c>
-      <c r="O442" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>12</v>
       </c>
@@ -10737,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>14</v>
       </c>
@@ -10754,7 +10316,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>14</v>
       </c>
@@ -10771,7 +10333,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>13</v>
       </c>
@@ -10788,7 +10350,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>15</v>
       </c>
@@ -10811,16 +10373,13 @@
         <v>30</v>
       </c>
       <c r="M447" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N447" t="s">
-        <v>24</v>
-      </c>
-      <c r="O447" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="448" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>15</v>
       </c>
@@ -10843,16 +10402,13 @@
         <v>30</v>
       </c>
       <c r="M448" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N448" t="s">
-        <v>24</v>
-      </c>
-      <c r="O448" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="449" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>12</v>
       </c>
@@ -10869,7 +10425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>14</v>
       </c>
@@ -10886,7 +10442,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>14</v>
       </c>
@@ -10903,7 +10459,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>13</v>
       </c>
@@ -10920,7 +10476,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>15</v>
       </c>
@@ -10943,16 +10499,13 @@
         <v>30</v>
       </c>
       <c r="M453" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N453" t="s">
-        <v>24</v>
-      </c>
-      <c r="O453" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="454" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>15</v>
       </c>
@@ -10975,16 +10528,13 @@
         <v>30</v>
       </c>
       <c r="M454" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N454" t="s">
-        <v>24</v>
-      </c>
-      <c r="O454" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="455" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>12</v>
       </c>
@@ -11001,7 +10551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>14</v>
       </c>
@@ -11018,7 +10568,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>14</v>
       </c>
@@ -11035,7 +10585,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>13</v>
       </c>
@@ -11052,7 +10602,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>15</v>
       </c>
@@ -11075,16 +10625,13 @@
         <v>30</v>
       </c>
       <c r="M459" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N459" t="s">
-        <v>24</v>
-      </c>
-      <c r="O459" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>15</v>
       </c>
@@ -11107,16 +10654,13 @@
         <v>30</v>
       </c>
       <c r="M460" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N460" t="s">
-        <v>24</v>
-      </c>
-      <c r="O460" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>12</v>
       </c>
@@ -11133,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>14</v>
       </c>
@@ -11150,7 +10694,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>14</v>
       </c>
@@ -11167,7 +10711,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>14</v>
       </c>
@@ -11184,7 +10728,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -11201,7 +10745,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>15</v>
       </c>
@@ -11224,16 +10768,13 @@
         <v>30</v>
       </c>
       <c r="M466" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N466" t="s">
-        <v>24</v>
-      </c>
-      <c r="O466" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>15</v>
       </c>
@@ -11256,16 +10797,13 @@
         <v>30</v>
       </c>
       <c r="M467" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N467" t="s">
-        <v>24</v>
-      </c>
-      <c r="O467" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>15</v>
       </c>
@@ -11288,16 +10826,13 @@
         <v>30</v>
       </c>
       <c r="M468" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N468" t="s">
-        <v>24</v>
-      </c>
-      <c r="O468" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>17</v>
       </c>
@@ -11317,7 +10852,7 @@
         <v>9557</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>12</v>
       </c>
@@ -11334,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>14</v>
       </c>
@@ -11351,7 +10886,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>14</v>
       </c>
@@ -11368,7 +10903,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>13</v>
       </c>
@@ -11385,7 +10920,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>15</v>
       </c>
@@ -11408,16 +10943,13 @@
         <v>30</v>
       </c>
       <c r="M474" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N474" t="s">
-        <v>24</v>
-      </c>
-      <c r="O474" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="475" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>15</v>
       </c>
@@ -11440,16 +10972,13 @@
         <v>30</v>
       </c>
       <c r="M475" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N475" t="s">
-        <v>24</v>
-      </c>
-      <c r="O475" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="476" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>12</v>
       </c>
@@ -11469,7 +10998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>14</v>
       </c>
@@ -11486,7 +11015,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>14</v>
       </c>
@@ -11503,7 +11032,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>13</v>
       </c>
@@ -11520,7 +11049,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>15</v>
       </c>
@@ -11543,16 +11072,13 @@
         <v>30</v>
       </c>
       <c r="M480" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N480" t="s">
-        <v>24</v>
-      </c>
-      <c r="O480" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="481" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -11575,16 +11101,13 @@
         <v>30</v>
       </c>
       <c r="M481" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N481" t="s">
-        <v>24</v>
-      </c>
-      <c r="O481" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="482" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>12</v>
       </c>
@@ -11601,7 +11124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>14</v>
       </c>
@@ -11618,7 +11141,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>14</v>
       </c>
@@ -11635,7 +11158,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>13</v>
       </c>
@@ -11652,7 +11175,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>15</v>
       </c>
@@ -11675,16 +11198,13 @@
         <v>1</v>
       </c>
       <c r="M486" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N486" t="s">
-        <v>24</v>
-      </c>
-      <c r="O486" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>15</v>
       </c>
@@ -11707,16 +11227,13 @@
         <v>30</v>
       </c>
       <c r="M487" t="s">
-        <v>23</v>
-      </c>
-      <c r="N487" t="s">
-        <v>24</v>
-      </c>
-      <c r="O487">
+        <v>22</v>
+      </c>
+      <c r="N487">
         <v>4184451</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>12</v>
       </c>
@@ -11733,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>14</v>
       </c>
@@ -11750,7 +11267,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>14</v>
       </c>
@@ -11767,7 +11284,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>13</v>
       </c>
@@ -11784,7 +11301,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>15</v>
       </c>
@@ -11807,16 +11324,13 @@
         <v>1</v>
       </c>
       <c r="M492" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N492" t="s">
-        <v>24</v>
-      </c>
-      <c r="O492" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="493" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>15</v>
       </c>
@@ -11839,16 +11353,13 @@
         <v>30</v>
       </c>
       <c r="M493" t="s">
-        <v>22</v>
-      </c>
-      <c r="N493" t="s">
-        <v>24</v>
-      </c>
-      <c r="O493">
+        <v>21</v>
+      </c>
+      <c r="N493">
         <v>4132161</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>12</v>
       </c>
@@ -11865,7 +11376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>14</v>
       </c>
@@ -11882,7 +11393,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>14</v>
       </c>
@@ -11899,7 +11410,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>13</v>
       </c>
@@ -11916,7 +11427,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>15</v>
       </c>
@@ -11939,16 +11450,13 @@
         <v>30</v>
       </c>
       <c r="M498" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N498" t="s">
-        <v>24</v>
-      </c>
-      <c r="O498" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>15</v>
       </c>
@@ -11971,16 +11479,13 @@
         <v>30</v>
       </c>
       <c r="M499" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N499" t="s">
-        <v>24</v>
-      </c>
-      <c r="O499" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>12</v>
       </c>
@@ -11997,7 +11502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>14</v>
       </c>
@@ -12014,7 +11519,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>14</v>
       </c>
@@ -12031,7 +11536,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>13</v>
       </c>
@@ -12048,7 +11553,7 @@
         <v>9201</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>15</v>
       </c>
@@ -12071,16 +11576,13 @@
         <v>30</v>
       </c>
       <c r="M504" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N504" t="s">
-        <v>24</v>
-      </c>
-      <c r="O504" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>15</v>
       </c>
@@ -12103,16 +11605,13 @@
         <v>30</v>
       </c>
       <c r="M505" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N505" t="s">
-        <v>24</v>
-      </c>
-      <c r="O505" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="506" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>12</v>
       </c>
@@ -12129,7 +11628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>14</v>
       </c>
@@ -12146,7 +11645,7 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>14</v>
       </c>
@@ -12163,32 +11662,32 @@
         <v>39565</v>
       </c>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B509">
         <v>1570</v>
       </c>
+      <c r="D509">
+        <v>797617</v>
+      </c>
       <c r="E509" s="1">
         <v>39491</v>
       </c>
       <c r="F509" s="1">
         <v>39565</v>
       </c>
-      <c r="H509">
-        <v>9201</v>
-      </c>
-    </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="510" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B510">
         <v>1570</v>
       </c>
       <c r="D510">
-        <v>40223506</v>
+        <v>1354860</v>
       </c>
       <c r="E510" s="1">
         <v>39491</v>
@@ -12196,189 +11695,365 @@
       <c r="F510" s="1">
         <v>39565</v>
       </c>
-      <c r="I510">
-        <v>10</v>
-      </c>
-      <c r="J510">
-        <v>10</v>
-      </c>
-      <c r="M510" t="s">
-        <v>20</v>
-      </c>
-      <c r="N510" t="s">
-        <v>24</v>
-      </c>
-      <c r="O510" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="511" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B511">
         <v>1570</v>
       </c>
-      <c r="D511">
+      <c r="E511" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F511" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H511">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="512" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>15</v>
+      </c>
+      <c r="B512">
+        <v>1570</v>
+      </c>
+      <c r="D512">
+        <v>40223506</v>
+      </c>
+      <c r="E512" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F512" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I512">
+        <v>10</v>
+      </c>
+      <c r="J512">
+        <v>10</v>
+      </c>
+      <c r="M512" t="s">
+        <v>19</v>
+      </c>
+      <c r="N512" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>15</v>
+      </c>
+      <c r="B513">
+        <v>1570</v>
+      </c>
+      <c r="D513">
         <v>43219718</v>
       </c>
-      <c r="E511" s="1">
-        <v>39491</v>
-      </c>
-      <c r="F511" s="1">
-        <v>39565</v>
-      </c>
-      <c r="I511">
-        <v>30</v>
-      </c>
-      <c r="J511">
-        <v>30</v>
-      </c>
-      <c r="M511" t="s">
-        <v>21</v>
-      </c>
-      <c r="N511" t="s">
-        <v>24</v>
-      </c>
-      <c r="O511" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A512" t="s">
+      <c r="E513" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F513" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I513">
+        <v>30</v>
+      </c>
+      <c r="J513">
+        <v>30</v>
+      </c>
+      <c r="M513" t="s">
+        <v>20</v>
+      </c>
+      <c r="N513" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>15</v>
+      </c>
+      <c r="B514">
+        <v>1570</v>
+      </c>
+      <c r="D514">
+        <v>797637</v>
+      </c>
+      <c r="E514" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F514" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I514">
+        <v>60</v>
+      </c>
+      <c r="J514">
+        <v>30</v>
+      </c>
+      <c r="M514" t="s">
+        <v>20</v>
+      </c>
+      <c r="N514" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>15</v>
+      </c>
+      <c r="B515">
+        <v>1570</v>
+      </c>
+      <c r="D515">
+        <v>19022281</v>
+      </c>
+      <c r="E515" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F515" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I515">
+        <v>10</v>
+      </c>
+      <c r="J515">
+        <v>10</v>
+      </c>
+      <c r="M515" t="s">
+        <v>19</v>
+      </c>
+      <c r="N515" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
         <v>12</v>
-      </c>
-      <c r="B512">
-        <v>1571</v>
-      </c>
-      <c r="C512">
-        <v>1950</v>
-      </c>
-      <c r="K512">
-        <v>1</v>
-      </c>
-      <c r="L512">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A513" t="s">
-        <v>14</v>
-      </c>
-      <c r="B513">
-        <v>1571</v>
-      </c>
-      <c r="D513">
-        <v>19036781</v>
-      </c>
-      <c r="E513" s="1">
-        <v>39491</v>
-      </c>
-      <c r="F513" s="1">
-        <v>39565</v>
-      </c>
-    </row>
-    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
-        <v>14</v>
-      </c>
-      <c r="B514">
-        <v>1571</v>
-      </c>
-      <c r="D514">
-        <v>1777806</v>
-      </c>
-      <c r="E514" s="1">
-        <v>39491</v>
-      </c>
-      <c r="F514" s="1">
-        <v>39565</v>
-      </c>
-    </row>
-    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A515" t="s">
-        <v>13</v>
-      </c>
-      <c r="B515">
-        <v>1571</v>
-      </c>
-      <c r="E515" s="1">
-        <v>39491</v>
-      </c>
-      <c r="F515" s="1">
-        <v>39565</v>
-      </c>
-      <c r="H515">
-        <v>9201</v>
-      </c>
-    </row>
-    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A516" t="s">
-        <v>15</v>
       </c>
       <c r="B516">
         <v>1571</v>
       </c>
-      <c r="D516">
-        <v>45775952</v>
-      </c>
-      <c r="E516" s="1">
-        <v>39491</v>
-      </c>
-      <c r="F516" s="1">
-        <v>39565</v>
-      </c>
-      <c r="I516">
-        <v>10</v>
-      </c>
-      <c r="J516">
-        <v>10</v>
-      </c>
-      <c r="M516" t="s">
-        <v>20</v>
-      </c>
-      <c r="N516" t="s">
-        <v>24</v>
-      </c>
-      <c r="O516" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C516">
+        <v>1950</v>
+      </c>
+      <c r="K516">
+        <v>1</v>
+      </c>
+      <c r="L516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B517">
         <v>1571</v>
       </c>
       <c r="D517">
+        <v>19036781</v>
+      </c>
+      <c r="E517" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F517" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>14</v>
+      </c>
+      <c r="B518">
+        <v>1571</v>
+      </c>
+      <c r="D518">
+        <v>1777806</v>
+      </c>
+      <c r="E518" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F518" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>14</v>
+      </c>
+      <c r="B519">
+        <v>1571</v>
+      </c>
+      <c r="D519">
+        <v>797617</v>
+      </c>
+      <c r="E519" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F519" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>14</v>
+      </c>
+      <c r="B520">
+        <v>1571</v>
+      </c>
+      <c r="D520">
+        <v>1000560</v>
+      </c>
+      <c r="E520" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F520" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E521" s="1"/>
+      <c r="F521" s="1"/>
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>13</v>
+      </c>
+      <c r="B522">
+        <v>1571</v>
+      </c>
+      <c r="E522" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F522" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H522">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>15</v>
+      </c>
+      <c r="B523">
+        <v>1571</v>
+      </c>
+      <c r="D523">
+        <v>45775952</v>
+      </c>
+      <c r="E523" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F523" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I523">
+        <v>10</v>
+      </c>
+      <c r="J523">
+        <v>10</v>
+      </c>
+      <c r="M523" t="s">
+        <v>19</v>
+      </c>
+      <c r="N523" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>15</v>
+      </c>
+      <c r="B524">
+        <v>1571</v>
+      </c>
+      <c r="D524">
         <v>46287321</v>
       </c>
-      <c r="E517" s="1">
-        <v>39491</v>
-      </c>
-      <c r="F517" s="1">
-        <v>39565</v>
-      </c>
-      <c r="I517">
-        <v>1</v>
-      </c>
-      <c r="J517">
-        <v>1</v>
-      </c>
-      <c r="M517" t="s">
+      <c r="E524" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F524" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I524">
+        <v>1</v>
+      </c>
+      <c r="J524">
+        <v>1</v>
+      </c>
+      <c r="M524" t="s">
+        <v>19</v>
+      </c>
+      <c r="N524" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>15</v>
+      </c>
+      <c r="B525">
+        <v>1571</v>
+      </c>
+      <c r="D525">
+        <v>19023636</v>
+      </c>
+      <c r="E525" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F525" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I525">
+        <v>30</v>
+      </c>
+      <c r="J525">
+        <v>30</v>
+      </c>
+      <c r="M525" t="s">
         <v>20</v>
       </c>
-      <c r="N517" t="s">
-        <v>24</v>
-      </c>
-      <c r="O517" t="s">
-        <v>24</v>
+      <c r="N525" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>15</v>
+      </c>
+      <c r="B526">
+        <v>1571</v>
+      </c>
+      <c r="D526">
+        <v>1000618</v>
+      </c>
+      <c r="E526" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F526" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I526">
+        <v>30</v>
+      </c>
+      <c r="J526">
+        <v>30</v>
+      </c>
+      <c r="M526" t="s">
+        <v>19</v>
+      </c>
+      <c r="N526" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N487" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N481">
+  <autoFilter ref="A1:M487" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M481">
       <sortCondition ref="B1:B481"/>
     </sortState>
   </autoFilter>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F10901-B72D-8E4A-A802-7AD4FBE2261F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF89C7-AFE3-AC43-B5CF-397863174A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -950,8 +950,8 @@
   <dimension ref="A1:N526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D521" sqref="D521"/>
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E375" sqref="E375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8861,7 +8861,7 @@
         <v>1307046</v>
       </c>
       <c r="E375" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="F375" s="1">
         <v>39565</v>
@@ -8941,7 +8941,7 @@
         <v>46221724</v>
       </c>
       <c r="E379" s="1">
-        <v>39491</v>
+        <v>39492</v>
       </c>
       <c r="F379" s="1">
         <v>39565</v>

--- a/patient_addition/data.xlsx
+++ b/patient_addition/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erc53/Github/iDiA_Rules/patient_addition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DF89C7-AFE3-AC43-B5CF-397863174A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296E95BA-D6F4-BE4C-8A5F-77DAD334BAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="460" windowWidth="28000" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="25">
   <si>
     <t>INSERT_TYPE</t>
   </si>
@@ -947,11 +947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N526"/>
+  <dimension ref="A1:N537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E375" sqref="E375"/>
+      <pane ySplit="1" topLeftCell="A501" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I530" sqref="I530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11915,24 +11915,49 @@
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E521" s="1"/>
-      <c r="F521" s="1"/>
+      <c r="A521" t="s">
+        <v>13</v>
+      </c>
+      <c r="B521">
+        <v>1571</v>
+      </c>
+      <c r="E521" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F521" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H521">
+        <v>9201</v>
+      </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B522">
         <v>1571</v>
       </c>
+      <c r="D522">
+        <v>45775952</v>
+      </c>
       <c r="E522" s="1">
         <v>39491</v>
       </c>
       <c r="F522" s="1">
         <v>39565</v>
       </c>
-      <c r="H522">
-        <v>9201</v>
+      <c r="I522">
+        <v>10</v>
+      </c>
+      <c r="J522">
+        <v>10</v>
+      </c>
+      <c r="M522" t="s">
+        <v>19</v>
+      </c>
+      <c r="N522" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.2">
@@ -11943,7 +11968,7 @@
         <v>1571</v>
       </c>
       <c r="D523">
-        <v>45775952</v>
+        <v>46287321</v>
       </c>
       <c r="E523" s="1">
         <v>39491</v>
@@ -11952,10 +11977,10 @@
         <v>39565</v>
       </c>
       <c r="I523">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J523">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M523" t="s">
         <v>19</v>
@@ -11972,7 +11997,7 @@
         <v>1571</v>
       </c>
       <c r="D524">
-        <v>46287321</v>
+        <v>19023636</v>
       </c>
       <c r="E524" s="1">
         <v>39491</v>
@@ -11981,13 +12006,13 @@
         <v>39565</v>
       </c>
       <c r="I524">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J524">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M524" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N524" t="s">
         <v>23</v>
@@ -12001,7 +12026,7 @@
         <v>1571</v>
       </c>
       <c r="D525">
-        <v>19023636</v>
+        <v>1000618</v>
       </c>
       <c r="E525" s="1">
         <v>39491</v>
@@ -12016,7 +12041,7 @@
         <v>30</v>
       </c>
       <c r="M525" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N525" t="s">
         <v>23</v>
@@ -12024,30 +12049,253 @@
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B526">
-        <v>1571</v>
-      </c>
-      <c r="D526">
-        <v>1000618</v>
-      </c>
-      <c r="E526" s="1">
-        <v>39491</v>
-      </c>
-      <c r="F526" s="1">
-        <v>39565</v>
-      </c>
-      <c r="I526">
-        <v>30</v>
-      </c>
-      <c r="J526">
-        <v>30</v>
-      </c>
-      <c r="M526" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C526">
+        <v>1970</v>
+      </c>
+      <c r="K526">
+        <v>1</v>
+      </c>
+      <c r="L526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>14</v>
+      </c>
+      <c r="B527">
+        <v>1572</v>
+      </c>
+      <c r="D527">
+        <v>1310149</v>
+      </c>
+      <c r="E527" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F527" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>14</v>
+      </c>
+      <c r="B528">
+        <v>1572</v>
+      </c>
+      <c r="D528">
+        <v>725131</v>
+      </c>
+      <c r="E528" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F528" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>13</v>
+      </c>
+      <c r="B529">
+        <v>1572</v>
+      </c>
+      <c r="E529" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F529" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H529">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>15</v>
+      </c>
+      <c r="B530">
+        <v>1572</v>
+      </c>
+      <c r="D530">
+        <v>40163518</v>
+      </c>
+      <c r="E530" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F530" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I530">
+        <v>30</v>
+      </c>
+      <c r="J530">
+        <v>30</v>
+      </c>
+      <c r="M530" t="s">
         <v>19</v>
       </c>
-      <c r="N526" t="s">
+      <c r="N530" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>15</v>
+      </c>
+      <c r="B531">
+        <v>1572</v>
+      </c>
+      <c r="D531">
+        <v>725177</v>
+      </c>
+      <c r="E531" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F531" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I531">
+        <v>30</v>
+      </c>
+      <c r="J531">
+        <v>30</v>
+      </c>
+      <c r="M531" t="s">
+        <v>19</v>
+      </c>
+      <c r="N531" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>12</v>
+      </c>
+      <c r="B532">
+        <v>1573</v>
+      </c>
+      <c r="C532">
+        <v>1960</v>
+      </c>
+      <c r="K532">
+        <v>1</v>
+      </c>
+      <c r="L532">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>14</v>
+      </c>
+      <c r="B533">
+        <v>1573</v>
+      </c>
+      <c r="D533">
+        <v>1310149</v>
+      </c>
+      <c r="E533" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F533" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>14</v>
+      </c>
+      <c r="B534">
+        <v>1573</v>
+      </c>
+      <c r="D534">
+        <v>750982</v>
+      </c>
+      <c r="E534" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F534" s="1">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>13</v>
+      </c>
+      <c r="B535">
+        <v>1573</v>
+      </c>
+      <c r="E535" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F535" s="1">
+        <v>39565</v>
+      </c>
+      <c r="H535">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>15</v>
+      </c>
+      <c r="B536">
+        <v>1573</v>
+      </c>
+      <c r="D536">
+        <v>40163518</v>
+      </c>
+      <c r="E536" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F536" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I536">
+        <v>30</v>
+      </c>
+      <c r="J536">
+        <v>30</v>
+      </c>
+      <c r="M536" t="s">
+        <v>19</v>
+      </c>
+      <c r="N536" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>15</v>
+      </c>
+      <c r="B537">
+        <v>1573</v>
+      </c>
+      <c r="D537">
+        <v>19108152</v>
+      </c>
+      <c r="E537" s="1">
+        <v>39491</v>
+      </c>
+      <c r="F537" s="1">
+        <v>39565</v>
+      </c>
+      <c r="I537">
+        <v>30</v>
+      </c>
+      <c r="J537">
+        <v>30</v>
+      </c>
+      <c r="M537" t="s">
+        <v>19</v>
+      </c>
+      <c r="N537" t="s">
         <v>23</v>
       </c>
     </row>
